--- a/story/主线剧情/main/level_main_07-08_end.xlsx
+++ b/story/主线剧情/main/level_main_07-08_end.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="915" uniqueCount="892">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1220" uniqueCount="1189">
   <si>
     <t>zh_CN</t>
   </si>
@@ -22,6 +22,9 @@
     <t>ja_JP</t>
   </si>
   <si>
+    <t>en_US</t>
+  </si>
+  <si>
     <t>ko_KR</t>
   </si>
   <si>
@@ -2394,6 +2397,1190 @@
   </si>
   <si>
     <t xml:space="preserve">[name="サルカズ傭兵"]  お前は何を知った？　答えてもらおうか、腰抜けの異種感染者よ。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  The ritual has no affect on these Sarkaz... But our Sarkaz operators aren’t immune? Why?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  But they didn’t look like they were with the guerrilla team. Strange...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rhodes Island Guard?"]  Rosmontis...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rhodes Island Guard?"]  Thank you.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"]  I’m going on patrol.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"]  Don’t thank me. Like Amiya always says, you don’t thank people for doing their jobs.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ursus Infected"]  ......
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  The effects of the Oripathy inhibitor will take a while to show. But for now, you should be feeling a lot less pain.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  Take the medicine back to the others. There isn’t much, probably only enough for one dose, but it will help with acute symptoms. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ursus Infected"]  Did you really come to help us?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  I’m sorry, but we can’t help you much more than this.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  We have to defeat the leader of Reunion before we can do anything else.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  Also... if Reunion breaks into a full-scale riot again, I think we won’t be able to handle them.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ursus Infected"]  All those things I said to you... I... I wasn’t like this before.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ursus Infected"]  I used to hate you people. But now, I’m like you. Everyone hates me too.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ursus Infected"]  I very nearly killed him. But without his help... we might already be dead.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ursus Infected"]  But every time he let us go find supplies, someone died. I thought for sure that was proof he was working with Reunion, to toy with us.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ursus Infected"]  Even though we’re already Infected? Does Reunion... really hate the Ursus so much?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  People don’t need much to indulge in the ugliest side of their nature. Just giving them free rein can contaminate every part of a city.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  Dr. Kal’tsit... you scared me!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  Amiya, you shouldn’t be letting these games get the better of you.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  Just once or twice is enough...!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  You’ll spoil our plans if you waste so much time talking.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rhodes Island Guard?"]  So... Dr. Kal’tsit, if she lied, were you really going to kill me?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ursus Infected"]  I... I didn’t lie though!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rhodes Island Guard?"]  Just hypothetically. Not every Infected is so honest after they’ve been hurt. I’ve acted on impulse before myself.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ursus Infected"]  Um... *sigh*...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  Of course not.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  You’re a Rhodes Island operator. I trust you over all others.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  Let’s call it a form of psychological treatment for her. Naturally, the way you and she responded to it proved your innocence.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rhodes Island Guard?"]  But I...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rhodes Island Guard?"]  That look on your face was so dark and terrifying. I really thought you were going to do it... your act was way too convincing.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  Sounds fine to me. I wouldn’t do it, but I’d like to make people think that I would.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  Dr. Kal'tsit, you really pushed it... no more terrorizing Guard.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  Fine.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  Don’t worry, Guard. If she did go too far, I would’ve stepped in to stop her.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  Did all that spike your emotional state? Should I help you recuperate? 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rhodes Island Guard?"]  Oh, no need. I’d be awful weak if I needed the Amiya treatment after just that.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rhodes Island Guard?"]  After all... The one I really worry about is the little one standing by the door.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"]  ......
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rhodes Island Guard?"]  But even that’s looking better. She and I sorted things out, and I think I get it... but I still can’t let go of the time she split a person clean in half with the sweep of a claymore.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rhodes Island Guard?"]  That’s gonna be with me my whole life.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  Oh... I know the incident you’re talking about.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  Guard... did you know she saved four civilian lives during that operation? That the military was testing weapons on them?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  She killed an abandoned weapons-grade experimental caster they’d bought from a Sargon slaver. The entire batch of casters had their pituitary glands surgically removed.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  The glands were replaced with an Originium device that kept them moving without input from their own nervous systems. They were already dead.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  Only Rosmontis, with her unique fighting style, could destroy the experimental infected organs. She did nothing wrong.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rhodes Island Guard?"]  ...So that’s what happened?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  Guard, I think you misjudged Rosmontis the same way that young lady misjudged you.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  What you look like, and any rumors going around about you, are anyone’s first window into your personality. No matter what you did, they’d be looking at you as Reunion first.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  But if we never got past the surface... we’d never know anything, let alone learn to trust.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  If no one tries to find the truth, then no matter how hard we work to sow its seeds, they won’t germinate.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  And anyway, Rosmontis is right in front of you. Why don’t you just... ask her?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rhodes Island Guard?"]  A-Ask her?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"]  What do you want to ask?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Decision(options="(Rosmontis sure is scary...!)", values="1")]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  (Um, not like that... she won’t know what to say...)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rhodes Island Guard?"]  ......
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rhodes Island Guard?"]  ...Rosmontis, what are you here for?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"]  My mission.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"]  ...And, like I said, getting revenge. For my family.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rhodes Island Guard?"]  I’m done asking.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rhodes Island Guard?"]  But... I don’t even know what I asked.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rhodes Island Guard?"]  I was angry at Azazel before, and now I was rude to Rosmontis. Hah, what a mess I am.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  But you trust Patriot. Tell us about Patriot and his guerrillas, and about Reunion.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rhodes Island Guard?"]  I’m pretty sure Dr. Kal’tsit and Dr. {@nickname} here can make sense of it.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rhodes Island Guard?"]  The only reason there’s anyone still left alive, why so many Ursus were able to make it through Chernobog...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rhodes Island Guard?"]  Is because Patriot and his guerrillas. And the people who respect them.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rhodes Island Guard?"]  When the guerrilla fighters were around, there was peace. Nobody dared to raise a hand against anybody else.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rhodes Island Guard?"]  Not only did they hand out supplies and resources, but they even worked to make the locals’ lives a little better.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rhodes Island Guard?"]  ...Patriot was going to let me leave the city. But I decided to stay... to see how things turned out.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rhodes Island Guard?"]  I overheard him talking to the leader of Azazel. I think even if it’s all an act, he’s at least working hard to keep up the act.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rhodes Island Guard?"]  Also... Mr. Scout died there to protect me. Patriot respected Mr. Scout. I...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Decision(options="Scout... was an operator who sacrificed himself in Chernobog.", values="1")]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"]  Scout!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Decision(options="Rosmontis...?", values="1")]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"]  What happened to Scout?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"]  I... why can’t I remember? He died? He...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"]  This emptiness... is that him? Scout... I forgot again?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"]  But I just... the terminal... how could I forget again?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">January 3rd 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An old man with white hair brought a charred, blackened object. Mechanist couldn’t stand after seeing it.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The old man nodded and left. Dr. Kal'tsit didn’t say anything, only patted my head.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It was Scout’s.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scout is gone too.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scout was the one who didn’t even have a shadow, wasn’t he? Wouldn’t he be the one who came back even when everyone else died? Wasn’t he the one with a never-ending story?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I searched the logs. Scout made me a bow. But that’s a toy for little girls. I don’t play with toys anymore.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Why did Scout die?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Why? Why? Why?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Why?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"]  *sobs*...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  Rosmontis...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  Give me your hand. Close your eyes, Rosmontis...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rhodes Island Guard?"]  Turns out elite operators... aren’t that different... from my teammates.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rhodes Island Guard?"]  Dr. {@nickname}, I’ve got something to say.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rhodes Island Guard?"]  On your rescue operation, Scout led the recon team. He never knew you like you are now... But he said he knew you before, like Ace.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rhodes Island Guard?"]  He held back the Sarkaz mercenaries to save my life.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rhodes Island Guard?"]  Knowing Scout, he could’ve easily gotten out if he wanted to.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rhodes Island Guard?"]  He told me to tell you something... Right, I remember it.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rhodes Island Guard?"]  He said he would never forget fighting by your side.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Decision(options="...?", values="1")]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  Huh...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rhodes Island Guard?"]  He also wanted you to stop being a commander. But things being what they are, I think you probably can’t just sit by and watch.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rhodes Island Guard?"]  Boss sacrificed himself to save me too. That means I’ve got two elite operators’ lives on my shoulders.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rhodes Island Guard?"]  But Mr. Scout said they didn’t die for any one person. They died for an idea.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rhodes Island Guard?"]  His team did, and so did mine.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rhodes Island Guard?"]  So I decided to look into Reunion. I had to see where things were going, and how I could help Rhodes Island.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rhodes Island Guard?"]  —I saw the guerrillas had their own idea. A firm, pure conviction that they were fighting for.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rhodes Island Guard?"]  They were a little more savage, of course, but they never found joy in violence. That’s what I saw in them.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rhodes Island Guard?"]  If Reunion was supposed to be about liberating the Infected, then the guerrillas... they were there to exterminate their oppressors.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rhodes Island Guard?"]  They’d exterminate those who enslave the Infected, and those who threaten the common folk. All of them. To a man.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rhodes Island Guard?"]  That’s because of Patriot. Patriot taught them, led them, and protected them.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rhodes Island Guard?"]  Before Patriot set out from Chernobog on a mission, I had a... talk with him.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rhodes Island Guard?"]  *Sigh*. Just how old is that warrior? But he still shared some of his booze with me. It was the first time... anybody treated me like that.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  He may indeed be much older than you think.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rhodes Island Guard?"]  Have you heard the legend? About him leaving Ursus?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  I have. He led an entire elite division out of Ursus. The Great Rebellion proved to be fertile ground for all sorts of things that otherwise would’ve been absurd. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rhodes Island Guard?"]  The truth is, there aren’t many of those soldiers he led out of Ursus left.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rhodes Island Guard?"]  Their clashes with the Ursus regulars must’ve cost them a lot of men.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rhodes Island Guard?"]  Most of his guerrillas are fresh recruits, people who volunteered to join when they fought in the northwest tundra.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rhodes Island Guard?"]  Their battles, their prestige, and their ideals all won them recruits.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rhodes Island Guard?"]  They used to work well with the leader of Reunion. But for some reason, maybe related to the burning hate the Infected have for the people of Ursus... things turned out like this.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rhodes Island Guard?"]  It is what it is. Everyone alive today suffers Catastrophes, madness, and death. All kinds of suffering that this world heaps upon them.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rhodes Island Guard?"]  Tatiana... I remember your name is Tatiana.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Tatiana"]  ...That’s right.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rhodes Island Guard?"]  Does your knee hurt?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Tatiana"]  What’s that?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rhodes Island Guard?"]  Three days ago, you tripped trying to run away.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Tatiana"]  It got better a while ago...! I’m Ursus! I’m not like... whatever your race is. Us Ursus are much sturdier.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rhodes Island Guard?"]  I’m glad... it looked pretty nasty.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rhodes Island Guard?"]  Hah, here I am, doing a medic operator’s job without any training.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rhodes Island Guard?"]  I’ve got a lot on my plate, Dr. Kal'tsit.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  I understand.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  Hm...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rhodes Island Guard?"]  Medic didn’t come with you?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"]  Why bring her up?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rhodes Island Guard?"]  Don’t worry about it. I can tell by the look on Rosmontis’s face what happened. We’ve lost a lot of people, but Rhodes Island fights on.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  I’m getting the impression that you don’t know the core city is on a collision course with Lungmen.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rhodes Island Guard?"]  What?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rhodes Island Guard?"]  Oh, are you talking about helping the Reunion forces at the battle of Lungmen? Moving the core city is Reunion’s only play. I heard about that.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  The core city is broadcasting an Ursus identification code.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rhodes Island Guard?"]  Huh?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rhodes Island Guard?"]  ...What?!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rhodes Island Guard?"]  Hold up!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rhodes Island Guard?"]  ...No way... That doesn’t make any sense!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  Now you know why we’re here.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Tatiana"]  What’s the problem?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  (Makes the Rhodes Island hand gesture for “quiet.”)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rhodes Island Guard?"]  Nothing...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Tatiana"]  ...You’ve been talking so long. If Patriot and his men are as good as you say, why is Reunion still running amok here in Ursus?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  Because Reunion “shouldn’t” be doing this.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Tatiana"]  ...Huh?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  Guard...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  I think you would be a great help to our operation, since you’re familiar with both the local Infected and Reunion. Would you be willing to rejoin our team?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  Oh, but you can’t leave yet, can you?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rhodes Island Guard?"]  ...Right. I’m sure you can tell just by looking at me. Right, Amiya?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rhodes Island Guard?"]  Sorry, I know I’m about a decade older than you, but sometimes you make me feel like a kid.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  No need to blame yourself. I could even say Rhodes Island will honor your work.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  ...But you’re in a very dangerous position.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  Guard, if Reunion falls here, your work to save the Infected and maintain their basic living conditions will become much more difficult.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  Are you at all worried that could come to pass?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rhodes Island Guard?"]  No, I’m not.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rhodes Island Guard?"]  Because Reunion has Patriot.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rhodes Island Guard?"]  As long as he’s here, Reunion won’t fall.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rhodes Island Guard?"]  A lot of guerrilla fighters left camp and gathered up. I’m thinking that's because he may be back already.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rhodes Island Guard?"]  And if he’s here, I believe Reunion can still change.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  But Reunion lacks the impetus to change. Looking at the evidence, Talulah has certainly not devoted herself to the cause.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  Chernobog’s core city, the ruins of Chernobog back there, and the Ursus Infected...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  We can’t forget that the Ursus Third Army is still out there waiting to act. That will make everything drastically worse.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rhodes Island Guard?"]  But I know Reunion is relatively strong.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rhodes Island Guard?"]  And there are a few things... Rhodes Island can’t handle. This is one of those things!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rhodes Island Guard?"]  Rhodes Island is a corporation. Dr. Kal’tsit has been very clear about that, time and again.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rhodes Island Guard?"]  I believe in Boss, and Mr. Scout...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rhodes Island Guard?"]  And I believe in Patriot.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  ...I know.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rhodes Island Guard?"]  ...Aren’t you mad, Amiya?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  Why should I be mad at you... over things we can’t do, and things we haven’t done?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  So much happened these past two weeks. We’ve all changed a lot.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  But we’re not about to turn on each other because of the Infected. I think all that happened in Chernobog, and what Guard and I saw, were the same.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rhodes Island Guard?"]  Correct. I still can’t stand hurting people like that. No matter who’s doing it to who, I won’t stand for it.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rhodes Island Guard?"]  If Patriot wants to clean house in Reunion, I have to stand with him, with his men, and with all the Reunion members who believe in Patriot.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  We do not consider your new way of thinking to be a threat to our interests.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  In fact, we encourage all our operators to learn more about the outside world, seek out their own goals, and build their self-confidence.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  Our ideas are constantly changing.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rhodes Island Guard?"]  ...Thank you, Dr. Kal'tsit, Amiya.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  Oh, yes.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  You can also contact the Doctor later.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Decision(options="Anytime!;......;Happy to be of help.", values="1;2;3")]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rhodes Island Guard?"]  As for my responsibilities at Rhodes Island... Amiya, Dr. Kal’tsit... Will they be more important?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  ...I wouldn’t put it that way, Guard. It’s more important to decide for yourself what you want to do.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  And, personally, I think that any of us would have done the same in your position.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  Different people make different choices. If something’s important to you, it’s important.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  I hope you find a place for yourself among these Ursus, like you wanted. I hope you can protect those deserving of protection.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Tatiana"]  ...W-why are you looking at me...?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rhodes Island Guard?"]  ...I’m not. No reason. Just thinking.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  Oh yes.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  Regarding your pay, I’m afraid your work here doesn’t support a salary. Sorry.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  Also, Guard, please do tell me—
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  If Patriot betrays Talulah, what happens then?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rhodes Island Guard?"]  ...That won’t happen. Patriot trusts Talulah deeply. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  Now what about the other way around?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rhodes Island Guard?"]  ...Dr. Kal'tsit?!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  What if Talulah betrays Patriot?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  Or, what if I told you we encountered the Reunion commander, FrostNova, and by any objective measure, are responsible for her death?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rhodes Island Guard?"]  Dr. Kal’tsit?! What are you saying?!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rhodes Island Guard?"]  That... th-that’s Patriot’s daughter...!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  If we fight Patriot...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  That would be the worst case scenario. And it’s what the puppetmasters would want.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  If Talulah really is turning a blind eye to, or even allowing the Infected to harm innocent civilians in spite of Patriot’s stance... I believe that’s no longer just turning a blind eye.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  A lot of Infected will make Patriot into a target. Those who don’t know the truth, and those who let their hatred get the better of them.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  And those who want to.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rhodes Island Guard?"]  I... I have to go.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rhodes Island Guard?"]  I have to tell Patriot!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rhodes Island Guard?"]  But... Rhodes Island...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rhodes Island Guard?"]  Will he be... your enemy?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Decision(options="I didn’t think things would turn out like this.", values="1")]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  It’s not the obvious step for Reunion to take.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  Whether Misha or FrostNova...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  Us, Reunion, and Lungmen too... We can’t let anyone else slip through the cracks.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  Doctor, we still have a lot to do... just thinking of what comes next is making me tired.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  But before that... we have to find Madame Ch'en.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  And, most importantly...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  The leader of Reunion. She’s the cause of all of this.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  Right. Team Mantra-2, come in.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Elysium"]  The captain has determined Reunion’s communication method. It’s primitive, even artificial-looking. As for personnel, she’s just about done clearing the area.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Elysium"]  Not the guerrillas though. They’re tough.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Elysium"]  Should we eliminate them?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  No need for that. We’re not here to eliminate them, or have them butcher each other.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  We’re not here to stir up internal conflict. They should oppose those who misled them.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Elysium"]  Now?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Elysium"]  That’s her question. I’m good.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  Naturally... not now.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  Their spirit is rotten, but their fabrication of a backbone still remains.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  Take it away or break it, and watch them crumble. That’s what we might have done at first.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  Talulah was a step ahead of us. She stirred the conflict and fanned its flames.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  I originally thought that she had gone mad. But this is poison, not madness.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  The Infected and the people of the city will surely rise up.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  Talulah gave them the chance to intermingle and build bridges.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  She must still have a queen on the board, or she wouldn’t be so bold.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  I firmly believe that she wants to destroy Reunion, in the most dishonorable possible way.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  ...And this is a poison that we must neutrallize.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  But all this hinges on what Buldrokkas'tee decides to do...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Decision(options="It looks like we’ve successfully infiltrated the core city.", values="1")]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  Because what we do next can hardly be called an infiltration, Dr. {@nickname}. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  As I said when we started, infiltration is only about twenty percent of our plan here.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  To get to the core command tower and the generator area to halt Chernobog’s movement, we will have to go through the central district.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  Now, the enemies in our path are not your run-of-the-mill Reunion, nor are they brutish Sarkaz sellswords.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Decision(options="Reunion’s running low on leaders.", values="1")]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  Let’s put W aside for now.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  As a tactician, you should be more concerned about this than about Talulah, Reunion’s tyrant.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  The Infected Guerrillas of the Northern Plains, a thorn in the hinterland of Ursus’s Fourth Army to the northwest... Since its formation, it has only ever had one leader.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  Ordinary resistance fighters get slaughtered, but these guerrillas were able to turn the tables on the butchers.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  Local stakeholders could request the mobilization of a division or two to knock them out, but it would be taken as an admission of incompetence to the generals and the State Council.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  The war raged for so long that the Infected hiding out in the snow came to call the guerrillas their “Aegis.”
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  The Aegis of the Infected.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  The Yeti Squad was one of its subsets, and its members did not solely consist of Infected.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  The exiles, the fanatics, the maimed, Elves, Durin, and Sarkaz. The guerrillas did not fight for the Infected alone.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Decision(options="—Sounds familiar.", values="1")]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  Oh?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Decision(options="It’s exactly what you’re thinking.;......;I just said whatever came to mind.", values="1;2;3")]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  Just like Rhodes Island, yes?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  Just as before, Rhodes Island will benefit from your intuition, Dr. {@nickname}.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Decision(options="You’re not mad?;......;I thought you wouldn’t appreciate that.", values="1;2;3")]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  Why do you look into my eyes when you say that?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  There’s nothing to see in these eyes.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  There’s no point in staying silent at a time like this.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  It’s your choice whether or not you hold an opinion.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  Would you rather I didn’t?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  You want me to reprimand you, Dr. {@nickname}?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  Not now. I don’t think you do, and I don’t think there’s anything wrong with what you said.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  In an unexpectedly apt analogy, the guerrilla fighters also trust only one commander, and embrace only that one commander.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  Yes, Doctor, this guerrilla force is another sort of “Rhodes Island.”
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  But their leader? No.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  Dr. {@nickname}, prepare yourself well. Or you’ll regret it.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  Even though one of our objectives is to clear a path through the central district to the bridge and the generator area...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  For your own safety, I still hope you and Amiya will not face him.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  But if this is all inevitable, then I can only repeat what I just said.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  ...Prepare yourself well, Dr. {@nickname}. And before you face him, you must prepare to face his guerrillas.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  I rarely offer my advice to others, Doctor.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  But that is “Patriot,” Buldrokkas'tee.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rhodes Island Guard?"]  *Pant*... *pant*...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rhodes Island Guard?"]  Still... another... block?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rhodes Island Guard?"]  No... No! I have to... I have to tell Patriot...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rhodes Island Guard?"]  If Talulah... if Talulah lets these people... strike at the guerrillas...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rhodes Island Guard?"]  Then... then... the guerrillas will... they will...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rhodes Island Guard?"]  Be killed by their own...!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rhodes Island Guard?"]  Patriot... Patriot is the only level-headed one left in Reunion...!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="???"]  Where do you think you’re going?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rhodes Island Guard?"]  You...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rhodes Island Guard?"]  Sarkaz.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Sarkaz Mercenary"]  What brigade are you with? And what business do you have in the central district?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Sarkaz Mercenary"]  Explain it to me.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Sarkaz Mercenary"]  Oh, or maybe you’re with the old Wendigo.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rhodes Island Guard?"]  You—
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Sarkaz Mercenary"]  The prey ran right up to me on his own.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Sarkaz Mercenary"]  What did you learn, weak little Infected outlander?
 </t>
   </si>
   <si>
@@ -3936,13 +5123,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C305"/>
+  <dimension ref="A1:D305"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3952,3349 +5139,4264 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
+        <v>302</v>
+      </c>
+      <c r="C2" t="s">
+        <v>597</v>
+      </c>
+      <c r="D2" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>303</v>
+      </c>
+      <c r="C3" t="s">
+        <v>598</v>
+      </c>
+      <c r="D3" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>304</v>
+      </c>
+      <c r="C4" t="s">
+        <v>599</v>
+      </c>
+      <c r="D4" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>305</v>
+      </c>
+      <c r="C5" t="s">
+        <v>600</v>
+      </c>
+      <c r="D5" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>306</v>
+      </c>
+      <c r="C6" t="s">
+        <v>601</v>
+      </c>
+      <c r="D6" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>307</v>
+      </c>
+      <c r="C7" t="s">
+        <v>602</v>
+      </c>
+      <c r="D7" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>308</v>
+      </c>
+      <c r="C8" t="s">
+        <v>603</v>
+      </c>
+      <c r="D8" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
+        <v>309</v>
+      </c>
+      <c r="C9" t="s">
+        <v>604</v>
+      </c>
+      <c r="D9" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" t="s">
+        <v>310</v>
+      </c>
+      <c r="C10" t="s">
+        <v>605</v>
+      </c>
+      <c r="D10" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
+        <v>311</v>
+      </c>
+      <c r="C11" t="s">
+        <v>606</v>
+      </c>
+      <c r="D11" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" t="s">
+        <v>312</v>
+      </c>
+      <c r="C12" t="s">
+        <v>607</v>
+      </c>
+      <c r="D12" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" t="s">
+        <v>313</v>
+      </c>
+      <c r="C13" t="s">
+        <v>608</v>
+      </c>
+      <c r="D13" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" t="s">
+        <v>314</v>
+      </c>
+      <c r="C14" t="s">
+        <v>609</v>
+      </c>
+      <c r="D14" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" t="s">
+        <v>315</v>
+      </c>
+      <c r="C15" t="s">
+        <v>610</v>
+      </c>
+      <c r="D15" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" t="s">
+        <v>316</v>
+      </c>
+      <c r="C16" t="s">
+        <v>611</v>
+      </c>
+      <c r="D16" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" t="s">
+        <v>317</v>
+      </c>
+      <c r="C17" t="s">
+        <v>612</v>
+      </c>
+      <c r="D17" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" t="s">
+        <v>318</v>
+      </c>
+      <c r="C18" t="s">
+        <v>613</v>
+      </c>
+      <c r="D18" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" t="s">
+        <v>319</v>
+      </c>
+      <c r="C19" t="s">
+        <v>614</v>
+      </c>
+      <c r="D19" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" t="s">
+        <v>320</v>
+      </c>
+      <c r="C20" t="s">
+        <v>615</v>
+      </c>
+      <c r="D20" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>321</v>
+      </c>
+      <c r="C21" t="s">
+        <v>616</v>
+      </c>
+      <c r="D21" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>322</v>
+      </c>
+      <c r="C22" t="s">
+        <v>617</v>
+      </c>
+      <c r="D22" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" t="s">
+        <v>323</v>
+      </c>
+      <c r="C23" t="s">
+        <v>618</v>
+      </c>
+      <c r="D23" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" t="s">
+        <v>324</v>
+      </c>
+      <c r="C24" t="s">
+        <v>619</v>
+      </c>
+      <c r="D24" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" t="s">
+        <v>325</v>
+      </c>
+      <c r="C25" t="s">
+        <v>620</v>
+      </c>
+      <c r="D25" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" t="s">
+        <v>326</v>
+      </c>
+      <c r="C26" t="s">
+        <v>621</v>
+      </c>
+      <c r="D26" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" t="s">
+        <v>327</v>
+      </c>
+      <c r="C27" t="s">
+        <v>622</v>
+      </c>
+      <c r="D27" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" t="s">
+        <v>328</v>
+      </c>
+      <c r="C28" t="s">
+        <v>623</v>
+      </c>
+      <c r="D28" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29" t="s">
+        <v>329</v>
+      </c>
+      <c r="C29" t="s">
+        <v>624</v>
+      </c>
+      <c r="D29" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30" t="s">
+        <v>330</v>
+      </c>
+      <c r="C30" t="s">
+        <v>625</v>
+      </c>
+      <c r="D30" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
+        <v>33</v>
+      </c>
+      <c r="B31" t="s">
+        <v>331</v>
+      </c>
+      <c r="C31" t="s">
+        <v>626</v>
+      </c>
+      <c r="D31" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
+        <v>34</v>
+      </c>
+      <c r="B32" t="s">
+        <v>332</v>
+      </c>
+      <c r="C32" t="s">
+        <v>627</v>
+      </c>
+      <c r="D32" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" t="s">
+        <v>35</v>
+      </c>
+      <c r="B33" t="s">
+        <v>333</v>
+      </c>
+      <c r="C33" t="s">
+        <v>628</v>
+      </c>
+      <c r="D33" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
+        <v>36</v>
+      </c>
+      <c r="B34" t="s">
+        <v>334</v>
+      </c>
+      <c r="C34" t="s">
+        <v>629</v>
+      </c>
+      <c r="D34" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" t="s">
+        <v>37</v>
+      </c>
+      <c r="B35" t="s">
+        <v>335</v>
+      </c>
+      <c r="C35" t="s">
+        <v>630</v>
+      </c>
+      <c r="D35" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" t="s">
+        <v>38</v>
+      </c>
+      <c r="B36" t="s">
+        <v>336</v>
+      </c>
+      <c r="C36" t="s">
+        <v>631</v>
+      </c>
+      <c r="D36" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" t="s">
+        <v>39</v>
+      </c>
+      <c r="B37" t="s">
+        <v>337</v>
+      </c>
+      <c r="C37" t="s">
+        <v>632</v>
+      </c>
+      <c r="D37" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" t="s">
+        <v>40</v>
+      </c>
+      <c r="B38" t="s">
+        <v>338</v>
+      </c>
+      <c r="C38" t="s">
+        <v>633</v>
+      </c>
+      <c r="D38" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" t="s">
+        <v>41</v>
+      </c>
+      <c r="B39" t="s">
+        <v>339</v>
+      </c>
+      <c r="C39" t="s">
+        <v>634</v>
+      </c>
+      <c r="D39" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" t="s">
+        <v>42</v>
+      </c>
+      <c r="B40" t="s">
+        <v>340</v>
+      </c>
+      <c r="C40" t="s">
+        <v>635</v>
+      </c>
+      <c r="D40" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" t="s">
+        <v>43</v>
+      </c>
+      <c r="B41" t="s">
+        <v>341</v>
+      </c>
+      <c r="C41" t="s">
+        <v>636</v>
+      </c>
+      <c r="D41" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" t="s">
+        <v>44</v>
+      </c>
+      <c r="B42" t="s">
+        <v>342</v>
+      </c>
+      <c r="C42" t="s">
+        <v>637</v>
+      </c>
+      <c r="D42" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" t="s">
+        <v>45</v>
+      </c>
+      <c r="B43" t="s">
+        <v>343</v>
+      </c>
+      <c r="C43" t="s">
+        <v>638</v>
+      </c>
+      <c r="D43" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" t="s">
+        <v>46</v>
+      </c>
+      <c r="B44" t="s">
+        <v>344</v>
+      </c>
+      <c r="C44" t="s">
+        <v>639</v>
+      </c>
+      <c r="D44" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" t="s">
+        <v>47</v>
+      </c>
+      <c r="B45" t="s">
+        <v>345</v>
+      </c>
+      <c r="C45" t="s">
+        <v>640</v>
+      </c>
+      <c r="D45" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" t="s">
+        <v>48</v>
+      </c>
+      <c r="B46" t="s">
+        <v>346</v>
+      </c>
+      <c r="C46" t="s">
+        <v>641</v>
+      </c>
+      <c r="D46" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" t="s">
+        <v>49</v>
+      </c>
+      <c r="B47" t="s">
+        <v>347</v>
+      </c>
+      <c r="C47" t="s">
+        <v>642</v>
+      </c>
+      <c r="D47" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" t="s">
+        <v>50</v>
+      </c>
+      <c r="B48" t="s">
+        <v>348</v>
+      </c>
+      <c r="C48" t="s">
+        <v>643</v>
+      </c>
+      <c r="D48" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" t="s">
+        <v>51</v>
+      </c>
+      <c r="B49" t="s">
+        <v>349</v>
+      </c>
+      <c r="C49" t="s">
+        <v>644</v>
+      </c>
+      <c r="D49" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" t="s">
+        <v>52</v>
+      </c>
+      <c r="B50" t="s">
+        <v>350</v>
+      </c>
+      <c r="C50" t="s">
+        <v>645</v>
+      </c>
+      <c r="D50" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" t="s">
+        <v>53</v>
+      </c>
+      <c r="B51" t="s">
+        <v>351</v>
+      </c>
+      <c r="C51" t="s">
+        <v>646</v>
+      </c>
+      <c r="D51" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" t="s">
+        <v>54</v>
+      </c>
+      <c r="B52" t="s">
+        <v>352</v>
+      </c>
+      <c r="C52" t="s">
+        <v>647</v>
+      </c>
+      <c r="D52" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" t="s">
+        <v>55</v>
+      </c>
+      <c r="B53" t="s">
+        <v>353</v>
+      </c>
+      <c r="C53" t="s">
+        <v>648</v>
+      </c>
+      <c r="D53" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" t="s">
+        <v>56</v>
+      </c>
+      <c r="B54" t="s">
+        <v>354</v>
+      </c>
+      <c r="C54" t="s">
+        <v>649</v>
+      </c>
+      <c r="D54" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" t="s">
+        <v>57</v>
+      </c>
+      <c r="B55" t="s">
+        <v>355</v>
+      </c>
+      <c r="C55" t="s">
+        <v>650</v>
+      </c>
+      <c r="D55" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" t="s">
+        <v>58</v>
+      </c>
+      <c r="B56" t="s">
+        <v>356</v>
+      </c>
+      <c r="C56" t="s">
+        <v>651</v>
+      </c>
+      <c r="D56" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" t="s">
+        <v>59</v>
+      </c>
+      <c r="B57" t="s">
+        <v>357</v>
+      </c>
+      <c r="C57" t="s">
+        <v>652</v>
+      </c>
+      <c r="D57" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" t="s">
+        <v>60</v>
+      </c>
+      <c r="B58" t="s">
+        <v>358</v>
+      </c>
+      <c r="C58" t="s">
+        <v>653</v>
+      </c>
+      <c r="D58" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" t="s">
+        <v>61</v>
+      </c>
+      <c r="B59" t="s">
+        <v>359</v>
+      </c>
+      <c r="C59" t="s">
+        <v>654</v>
+      </c>
+      <c r="D59" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" t="s">
+        <v>62</v>
+      </c>
+      <c r="B60" t="s">
+        <v>360</v>
+      </c>
+      <c r="C60" t="s">
+        <v>655</v>
+      </c>
+      <c r="D60" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" t="s">
+        <v>63</v>
+      </c>
+      <c r="B61" t="s">
+        <v>361</v>
+      </c>
+      <c r="C61" t="s">
+        <v>656</v>
+      </c>
+      <c r="D61" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" t="s">
+        <v>64</v>
+      </c>
+      <c r="B62" t="s">
+        <v>362</v>
+      </c>
+      <c r="C62" t="s">
+        <v>657</v>
+      </c>
+      <c r="D62" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" t="s">
+        <v>65</v>
+      </c>
+      <c r="B63" t="s">
+        <v>363</v>
+      </c>
+      <c r="C63" t="s">
+        <v>658</v>
+      </c>
+      <c r="D63" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" t="s">
+        <v>66</v>
+      </c>
+      <c r="B64" t="s">
+        <v>364</v>
+      </c>
+      <c r="C64" t="s">
+        <v>659</v>
+      </c>
+      <c r="D64" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" t="s">
+        <v>67</v>
+      </c>
+      <c r="B65" t="s">
+        <v>365</v>
+      </c>
+      <c r="C65" t="s">
+        <v>660</v>
+      </c>
+      <c r="D65" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" t="s">
+        <v>68</v>
+      </c>
+      <c r="B66" t="s">
+        <v>366</v>
+      </c>
+      <c r="C66" t="s">
+        <v>661</v>
+      </c>
+      <c r="D66" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" t="s">
+        <v>69</v>
+      </c>
+      <c r="B67" t="s">
+        <v>367</v>
+      </c>
+      <c r="C67" t="s">
+        <v>662</v>
+      </c>
+      <c r="D67" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" t="s">
+        <v>70</v>
+      </c>
+      <c r="B68" t="s">
+        <v>368</v>
+      </c>
+      <c r="C68" t="s">
+        <v>663</v>
+      </c>
+      <c r="D68" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" t="s">
+        <v>71</v>
+      </c>
+      <c r="B69" t="s">
+        <v>369</v>
+      </c>
+      <c r="C69" t="s">
+        <v>664</v>
+      </c>
+      <c r="D69" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" t="s">
+        <v>72</v>
+      </c>
+      <c r="B70" t="s">
+        <v>370</v>
+      </c>
+      <c r="C70" t="s">
+        <v>665</v>
+      </c>
+      <c r="D70" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" t="s">
+        <v>73</v>
+      </c>
+      <c r="B71" t="s">
+        <v>371</v>
+      </c>
+      <c r="C71" t="s">
+        <v>666</v>
+      </c>
+      <c r="D71" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" t="s">
+        <v>74</v>
+      </c>
+      <c r="B72" t="s">
+        <v>372</v>
+      </c>
+      <c r="C72" t="s">
+        <v>667</v>
+      </c>
+      <c r="D72" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" t="s">
+        <v>75</v>
+      </c>
+      <c r="B73" t="s">
+        <v>373</v>
+      </c>
+      <c r="C73" t="s">
+        <v>668</v>
+      </c>
+      <c r="D73" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" t="s">
+        <v>76</v>
+      </c>
+      <c r="B74" t="s">
+        <v>374</v>
+      </c>
+      <c r="C74" t="s">
+        <v>669</v>
+      </c>
+      <c r="D74" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" t="s">
+        <v>77</v>
+      </c>
+      <c r="B75" t="s">
+        <v>375</v>
+      </c>
+      <c r="C75" t="s">
+        <v>670</v>
+      </c>
+      <c r="D75" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" t="s">
+        <v>78</v>
+      </c>
+      <c r="B76" t="s">
+        <v>376</v>
+      </c>
+      <c r="C76" t="s">
+        <v>671</v>
+      </c>
+      <c r="D76" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" t="s">
+        <v>79</v>
+      </c>
+      <c r="B77" t="s">
+        <v>377</v>
+      </c>
+      <c r="C77" t="s">
+        <v>672</v>
+      </c>
+      <c r="D77" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" t="s">
+        <v>80</v>
+      </c>
+      <c r="B78" t="s">
+        <v>378</v>
+      </c>
+      <c r="C78" t="s">
+        <v>673</v>
+      </c>
+      <c r="D78" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" t="s">
+        <v>81</v>
+      </c>
+      <c r="B79" t="s">
+        <v>379</v>
+      </c>
+      <c r="C79" t="s">
+        <v>674</v>
+      </c>
+      <c r="D79" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" t="s">
+        <v>82</v>
+      </c>
+      <c r="B80" t="s">
+        <v>380</v>
+      </c>
+      <c r="C80" t="s">
+        <v>675</v>
+      </c>
+      <c r="D80" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" t="s">
+        <v>83</v>
+      </c>
+      <c r="B81" t="s">
+        <v>381</v>
+      </c>
+      <c r="C81" t="s">
+        <v>676</v>
+      </c>
+      <c r="D81" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" t="s">
+        <v>84</v>
+      </c>
+      <c r="B82" t="s">
+        <v>382</v>
+      </c>
+      <c r="C82" t="s">
+        <v>677</v>
+      </c>
+      <c r="D82" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" t="s">
+        <v>85</v>
+      </c>
+      <c r="B83" t="s">
+        <v>383</v>
+      </c>
+      <c r="C83" t="s">
+        <v>678</v>
+      </c>
+      <c r="D83" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" t="s">
+        <v>86</v>
+      </c>
+      <c r="B84" t="s">
+        <v>384</v>
+      </c>
+      <c r="C84" t="s">
+        <v>679</v>
+      </c>
+      <c r="D84" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" t="s">
+        <v>87</v>
+      </c>
+      <c r="B85" t="s">
+        <v>385</v>
+      </c>
+      <c r="C85" t="s">
+        <v>680</v>
+      </c>
+      <c r="D85" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" t="s">
+        <v>88</v>
+      </c>
+      <c r="B86" t="s">
+        <v>88</v>
+      </c>
+      <c r="C86" t="s">
+        <v>88</v>
+      </c>
+      <c r="D86" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" t="s">
+        <v>89</v>
+      </c>
+      <c r="B87" t="s">
+        <v>386</v>
+      </c>
+      <c r="C87" t="s">
+        <v>681</v>
+      </c>
+      <c r="D87" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" t="s">
+        <v>90</v>
+      </c>
+      <c r="B88" t="s">
+        <v>387</v>
+      </c>
+      <c r="C88" t="s">
+        <v>682</v>
+      </c>
+      <c r="D88" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" t="s">
+        <v>91</v>
+      </c>
+      <c r="B89" t="s">
+        <v>91</v>
+      </c>
+      <c r="C89" t="s">
+        <v>91</v>
+      </c>
+      <c r="D89" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" t="s">
+        <v>92</v>
+      </c>
+      <c r="B90" t="s">
+        <v>388</v>
+      </c>
+      <c r="C90" t="s">
+        <v>683</v>
+      </c>
+      <c r="D90" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" t="s">
+        <v>93</v>
+      </c>
+      <c r="B91" t="s">
+        <v>389</v>
+      </c>
+      <c r="C91" t="s">
+        <v>684</v>
+      </c>
+      <c r="D91" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" t="s">
+        <v>94</v>
+      </c>
+      <c r="B92" t="s">
+        <v>390</v>
+      </c>
+      <c r="C92" t="s">
+        <v>685</v>
+      </c>
+      <c r="D92" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" t="s">
+        <v>95</v>
+      </c>
+      <c r="B93" t="s">
+        <v>391</v>
+      </c>
+      <c r="C93" t="s">
+        <v>686</v>
+      </c>
+      <c r="D93" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" t="s">
+        <v>43</v>
+      </c>
+      <c r="B94" t="s">
+        <v>341</v>
+      </c>
+      <c r="C94" t="s">
+        <v>636</v>
+      </c>
+      <c r="D94" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" t="s">
+        <v>96</v>
+      </c>
+      <c r="B95" t="s">
+        <v>392</v>
+      </c>
+      <c r="C95" t="s">
+        <v>687</v>
+      </c>
+      <c r="D95" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" t="s">
+        <v>97</v>
+      </c>
+      <c r="B96" t="s">
+        <v>393</v>
+      </c>
+      <c r="C96" t="s">
+        <v>688</v>
+      </c>
+      <c r="D96" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" t="s">
+        <v>98</v>
+      </c>
+      <c r="B97" t="s">
+        <v>394</v>
+      </c>
+      <c r="C97" t="s">
+        <v>689</v>
+      </c>
+      <c r="D97" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" t="s">
+        <v>61</v>
+      </c>
+      <c r="B98" t="s">
+        <v>359</v>
+      </c>
+      <c r="C98" t="s">
+        <v>654</v>
+      </c>
+      <c r="D98" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" t="s">
+        <v>99</v>
+      </c>
+      <c r="B99" t="s">
+        <v>395</v>
+      </c>
+      <c r="C99" t="s">
+        <v>690</v>
+      </c>
+      <c r="D99" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" t="s">
+        <v>100</v>
+      </c>
+      <c r="B100" t="s">
+        <v>396</v>
+      </c>
+      <c r="C100" t="s">
+        <v>691</v>
+      </c>
+      <c r="D100" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" t="s">
+        <v>101</v>
+      </c>
+      <c r="B101" t="s">
+        <v>397</v>
+      </c>
+      <c r="C101" t="s">
+        <v>692</v>
+      </c>
+      <c r="D101" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" t="s">
+        <v>102</v>
+      </c>
+      <c r="B102" t="s">
+        <v>398</v>
+      </c>
+      <c r="C102" t="s">
+        <v>693</v>
+      </c>
+      <c r="D102" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103" t="s">
+        <v>103</v>
+      </c>
+      <c r="B103" t="s">
+        <v>399</v>
+      </c>
+      <c r="C103" t="s">
+        <v>694</v>
+      </c>
+      <c r="D103" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104" t="s">
+        <v>104</v>
+      </c>
+      <c r="B104" t="s">
+        <v>400</v>
+      </c>
+      <c r="C104" t="s">
+        <v>695</v>
+      </c>
+      <c r="D104" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105" t="s">
+        <v>105</v>
+      </c>
+      <c r="B105" t="s">
+        <v>401</v>
+      </c>
+      <c r="C105" t="s">
+        <v>696</v>
+      </c>
+      <c r="D105" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106" t="s">
+        <v>106</v>
+      </c>
+      <c r="B106" t="s">
+        <v>402</v>
+      </c>
+      <c r="C106" t="s">
+        <v>697</v>
+      </c>
+      <c r="D106" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107" t="s">
+        <v>107</v>
+      </c>
+      <c r="B107" t="s">
+        <v>403</v>
+      </c>
+      <c r="C107" t="s">
+        <v>698</v>
+      </c>
+      <c r="D107" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108" t="s">
+        <v>108</v>
+      </c>
+      <c r="B108" t="s">
+        <v>404</v>
+      </c>
+      <c r="C108" t="s">
+        <v>699</v>
+      </c>
+      <c r="D108" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109" t="s">
+        <v>109</v>
+      </c>
+      <c r="B109" t="s">
+        <v>405</v>
+      </c>
+      <c r="C109" t="s">
+        <v>700</v>
+      </c>
+      <c r="D109" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="A110" t="s">
+        <v>110</v>
+      </c>
+      <c r="B110" t="s">
+        <v>406</v>
+      </c>
+      <c r="C110" t="s">
+        <v>701</v>
+      </c>
+      <c r="D110" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="A111" t="s">
+        <v>111</v>
+      </c>
+      <c r="B111" t="s">
+        <v>407</v>
+      </c>
+      <c r="C111" t="s">
+        <v>702</v>
+      </c>
+      <c r="D111" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="A112" t="s">
+        <v>112</v>
+      </c>
+      <c r="B112" t="s">
+        <v>408</v>
+      </c>
+      <c r="C112" t="s">
+        <v>703</v>
+      </c>
+      <c r="D112" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113" t="s">
+        <v>113</v>
+      </c>
+      <c r="B113" t="s">
+        <v>409</v>
+      </c>
+      <c r="C113" t="s">
+        <v>704</v>
+      </c>
+      <c r="D113" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114" t="s">
+        <v>114</v>
+      </c>
+      <c r="B114" t="s">
+        <v>410</v>
+      </c>
+      <c r="C114" t="s">
+        <v>705</v>
+      </c>
+      <c r="D114" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115" t="s">
+        <v>115</v>
+      </c>
+      <c r="B115" t="s">
+        <v>411</v>
+      </c>
+      <c r="C115" t="s">
+        <v>706</v>
+      </c>
+      <c r="D115" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116" t="s">
+        <v>116</v>
+      </c>
+      <c r="B116" t="s">
+        <v>412</v>
+      </c>
+      <c r="C116" t="s">
+        <v>707</v>
+      </c>
+      <c r="D116" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117" t="s">
+        <v>117</v>
+      </c>
+      <c r="B117" t="s">
+        <v>413</v>
+      </c>
+      <c r="C117" t="s">
+        <v>708</v>
+      </c>
+      <c r="D117" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118" t="s">
+        <v>118</v>
+      </c>
+      <c r="B118" t="s">
+        <v>414</v>
+      </c>
+      <c r="C118" t="s">
+        <v>709</v>
+      </c>
+      <c r="D118" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119" t="s">
+        <v>119</v>
+      </c>
+      <c r="B119" t="s">
+        <v>415</v>
+      </c>
+      <c r="C119" t="s">
+        <v>710</v>
+      </c>
+      <c r="D119" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120" t="s">
+        <v>120</v>
+      </c>
+      <c r="B120" t="s">
+        <v>416</v>
+      </c>
+      <c r="C120" t="s">
+        <v>711</v>
+      </c>
+      <c r="D120" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121" t="s">
+        <v>121</v>
+      </c>
+      <c r="B121" t="s">
+        <v>417</v>
+      </c>
+      <c r="C121" t="s">
+        <v>712</v>
+      </c>
+      <c r="D121" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
+      <c r="A122" t="s">
+        <v>122</v>
+      </c>
+      <c r="B122" t="s">
+        <v>418</v>
+      </c>
+      <c r="C122" t="s">
+        <v>713</v>
+      </c>
+      <c r="D122" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4">
+      <c r="A123" t="s">
+        <v>123</v>
+      </c>
+      <c r="B123" t="s">
+        <v>419</v>
+      </c>
+      <c r="C123" t="s">
+        <v>714</v>
+      </c>
+      <c r="D123" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4">
+      <c r="A124" t="s">
+        <v>124</v>
+      </c>
+      <c r="B124" t="s">
+        <v>420</v>
+      </c>
+      <c r="C124" t="s">
+        <v>715</v>
+      </c>
+      <c r="D124" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4">
+      <c r="A125" t="s">
+        <v>125</v>
+      </c>
+      <c r="B125" t="s">
+        <v>421</v>
+      </c>
+      <c r="C125" t="s">
+        <v>716</v>
+      </c>
+      <c r="D125" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4">
+      <c r="A126" t="s">
+        <v>126</v>
+      </c>
+      <c r="B126" t="s">
+        <v>422</v>
+      </c>
+      <c r="C126" t="s">
+        <v>717</v>
+      </c>
+      <c r="D126" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4">
+      <c r="A127" t="s">
+        <v>127</v>
+      </c>
+      <c r="B127" t="s">
+        <v>423</v>
+      </c>
+      <c r="C127" t="s">
+        <v>718</v>
+      </c>
+      <c r="D127" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4">
+      <c r="A128" t="s">
+        <v>128</v>
+      </c>
+      <c r="B128" t="s">
+        <v>424</v>
+      </c>
+      <c r="C128" t="s">
+        <v>719</v>
+      </c>
+      <c r="D128" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4">
+      <c r="A129" t="s">
+        <v>129</v>
+      </c>
+      <c r="B129" t="s">
+        <v>425</v>
+      </c>
+      <c r="C129" t="s">
+        <v>720</v>
+      </c>
+      <c r="D129" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4">
+      <c r="A130" t="s">
+        <v>130</v>
+      </c>
+      <c r="B130" t="s">
+        <v>426</v>
+      </c>
+      <c r="C130" t="s">
+        <v>721</v>
+      </c>
+      <c r="D130" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4">
+      <c r="A131" t="s">
+        <v>131</v>
+      </c>
+      <c r="B131" t="s">
+        <v>427</v>
+      </c>
+      <c r="C131" t="s">
+        <v>722</v>
+      </c>
+      <c r="D131" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4">
+      <c r="A132" t="s">
+        <v>132</v>
+      </c>
+      <c r="B132" t="s">
+        <v>428</v>
+      </c>
+      <c r="C132" t="s">
+        <v>723</v>
+      </c>
+      <c r="D132" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4">
+      <c r="A133" t="s">
+        <v>133</v>
+      </c>
+      <c r="B133" t="s">
+        <v>429</v>
+      </c>
+      <c r="C133" t="s">
+        <v>724</v>
+      </c>
+      <c r="D133" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4">
+      <c r="A134" t="s">
+        <v>134</v>
+      </c>
+      <c r="B134" t="s">
+        <v>430</v>
+      </c>
+      <c r="C134" t="s">
+        <v>725</v>
+      </c>
+      <c r="D134" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4">
+      <c r="A135" t="s">
+        <v>135</v>
+      </c>
+      <c r="B135" t="s">
+        <v>431</v>
+      </c>
+      <c r="C135" t="s">
+        <v>726</v>
+      </c>
+      <c r="D135" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4">
+      <c r="A136" t="s">
+        <v>136</v>
+      </c>
+      <c r="B136" t="s">
+        <v>432</v>
+      </c>
+      <c r="C136" t="s">
+        <v>727</v>
+      </c>
+      <c r="D136" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4">
+      <c r="A137" t="s">
+        <v>137</v>
+      </c>
+      <c r="B137" t="s">
+        <v>433</v>
+      </c>
+      <c r="C137" t="s">
+        <v>728</v>
+      </c>
+      <c r="D137" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4">
+      <c r="A138" t="s">
+        <v>138</v>
+      </c>
+      <c r="B138" t="s">
+        <v>434</v>
+      </c>
+      <c r="C138" t="s">
+        <v>729</v>
+      </c>
+      <c r="D138" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4">
+      <c r="A139" t="s">
+        <v>139</v>
+      </c>
+      <c r="B139" t="s">
+        <v>435</v>
+      </c>
+      <c r="C139" t="s">
+        <v>730</v>
+      </c>
+      <c r="D139" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4">
+      <c r="A140" t="s">
+        <v>140</v>
+      </c>
+      <c r="B140" t="s">
+        <v>436</v>
+      </c>
+      <c r="C140" t="s">
+        <v>731</v>
+      </c>
+      <c r="D140" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4">
+      <c r="A141" t="s">
+        <v>141</v>
+      </c>
+      <c r="B141" t="s">
+        <v>437</v>
+      </c>
+      <c r="C141" t="s">
+        <v>732</v>
+      </c>
+      <c r="D141" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4">
+      <c r="A142" t="s">
+        <v>142</v>
+      </c>
+      <c r="B142" t="s">
+        <v>438</v>
+      </c>
+      <c r="C142" t="s">
+        <v>733</v>
+      </c>
+      <c r="D142" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4">
+      <c r="A143" t="s">
+        <v>143</v>
+      </c>
+      <c r="B143" t="s">
+        <v>439</v>
+      </c>
+      <c r="C143" t="s">
+        <v>734</v>
+      </c>
+      <c r="D143" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4">
+      <c r="A144" t="s">
+        <v>61</v>
+      </c>
+      <c r="B144" t="s">
+        <v>359</v>
+      </c>
+      <c r="C144" t="s">
+        <v>654</v>
+      </c>
+      <c r="D144" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4">
+      <c r="A145" t="s">
+        <v>144</v>
+      </c>
+      <c r="B145" t="s">
+        <v>440</v>
+      </c>
+      <c r="C145" t="s">
+        <v>735</v>
+      </c>
+      <c r="D145" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4">
+      <c r="A146" t="s">
+        <v>145</v>
+      </c>
+      <c r="B146" t="s">
+        <v>441</v>
+      </c>
+      <c r="C146" t="s">
+        <v>736</v>
+      </c>
+      <c r="D146" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4">
+      <c r="A147" t="s">
+        <v>146</v>
+      </c>
+      <c r="B147" t="s">
+        <v>442</v>
+      </c>
+      <c r="C147" t="s">
+        <v>737</v>
+      </c>
+      <c r="D147" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4">
+      <c r="A148" t="s">
+        <v>147</v>
+      </c>
+      <c r="B148" t="s">
+        <v>440</v>
+      </c>
+      <c r="C148" t="s">
+        <v>738</v>
+      </c>
+      <c r="D148" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4">
+      <c r="A149" t="s">
+        <v>148</v>
+      </c>
+      <c r="B149" t="s">
+        <v>443</v>
+      </c>
+      <c r="C149" t="s">
+        <v>739</v>
+      </c>
+      <c r="D149" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4">
+      <c r="A150" t="s">
+        <v>149</v>
+      </c>
+      <c r="B150" t="s">
+        <v>444</v>
+      </c>
+      <c r="C150" t="s">
+        <v>740</v>
+      </c>
+      <c r="D150" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4">
+      <c r="A151" t="s">
+        <v>150</v>
+      </c>
+      <c r="B151" t="s">
+        <v>445</v>
+      </c>
+      <c r="C151" t="s">
+        <v>741</v>
+      </c>
+      <c r="D151" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4">
+      <c r="A152" t="s">
+        <v>151</v>
+      </c>
+      <c r="B152" t="s">
+        <v>446</v>
+      </c>
+      <c r="C152" t="s">
+        <v>742</v>
+      </c>
+      <c r="D152" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4">
+      <c r="A153" t="s">
+        <v>152</v>
+      </c>
+      <c r="B153" t="s">
+        <v>447</v>
+      </c>
+      <c r="C153" t="s">
+        <v>743</v>
+      </c>
+      <c r="D153" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4">
+      <c r="A154" t="s">
+        <v>153</v>
+      </c>
+      <c r="B154" t="s">
+        <v>448</v>
+      </c>
+      <c r="C154" t="s">
+        <v>744</v>
+      </c>
+      <c r="D154" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4">
+      <c r="A155" t="s">
+        <v>154</v>
+      </c>
+      <c r="B155" t="s">
+        <v>449</v>
+      </c>
+      <c r="C155" t="s">
+        <v>745</v>
+      </c>
+      <c r="D155" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4">
+      <c r="A156" t="s">
+        <v>155</v>
+      </c>
+      <c r="B156" t="s">
+        <v>450</v>
+      </c>
+      <c r="C156" t="s">
+        <v>746</v>
+      </c>
+      <c r="D156" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4">
+      <c r="A157" t="s">
+        <v>156</v>
+      </c>
+      <c r="B157" t="s">
+        <v>451</v>
+      </c>
+      <c r="C157" t="s">
+        <v>747</v>
+      </c>
+      <c r="D157" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4">
+      <c r="A158" t="s">
+        <v>157</v>
+      </c>
+      <c r="B158" t="s">
+        <v>452</v>
+      </c>
+      <c r="C158" t="s">
+        <v>748</v>
+      </c>
+      <c r="D158" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4">
+      <c r="A159" t="s">
+        <v>158</v>
+      </c>
+      <c r="B159" t="s">
+        <v>453</v>
+      </c>
+      <c r="C159" t="s">
+        <v>749</v>
+      </c>
+      <c r="D159" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4">
+      <c r="A160" t="s">
+        <v>159</v>
+      </c>
+      <c r="B160" t="s">
+        <v>454</v>
+      </c>
+      <c r="C160" t="s">
+        <v>750</v>
+      </c>
+      <c r="D160" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4">
+      <c r="A161" t="s">
+        <v>61</v>
+      </c>
+      <c r="B161" t="s">
+        <v>359</v>
+      </c>
+      <c r="C161" t="s">
+        <v>654</v>
+      </c>
+      <c r="D161" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4">
+      <c r="A162" t="s">
+        <v>160</v>
+      </c>
+      <c r="B162" t="s">
+        <v>455</v>
+      </c>
+      <c r="C162" t="s">
+        <v>751</v>
+      </c>
+      <c r="D162" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4">
+      <c r="A163" t="s">
+        <v>161</v>
+      </c>
+      <c r="B163" t="s">
+        <v>456</v>
+      </c>
+      <c r="C163" t="s">
+        <v>752</v>
+      </c>
+      <c r="D163" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4">
+      <c r="A164" t="s">
+        <v>162</v>
+      </c>
+      <c r="B164" t="s">
+        <v>457</v>
+      </c>
+      <c r="C164" t="s">
+        <v>753</v>
+      </c>
+      <c r="D164" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4">
+      <c r="A165" t="s">
+        <v>163</v>
+      </c>
+      <c r="B165" t="s">
+        <v>458</v>
+      </c>
+      <c r="C165" t="s">
+        <v>754</v>
+      </c>
+      <c r="D165" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4">
+      <c r="A166" t="s">
+        <v>164</v>
+      </c>
+      <c r="B166" t="s">
+        <v>459</v>
+      </c>
+      <c r="C166" t="s">
+        <v>755</v>
+      </c>
+      <c r="D166" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4">
+      <c r="A167" t="s">
+        <v>165</v>
+      </c>
+      <c r="B167" t="s">
+        <v>460</v>
+      </c>
+      <c r="C167" t="s">
+        <v>756</v>
+      </c>
+      <c r="D167" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4">
+      <c r="A168" t="s">
+        <v>166</v>
+      </c>
+      <c r="B168" t="s">
+        <v>461</v>
+      </c>
+      <c r="C168" t="s">
+        <v>757</v>
+      </c>
+      <c r="D168" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4">
+      <c r="A169" t="s">
+        <v>167</v>
+      </c>
+      <c r="B169" t="s">
+        <v>462</v>
+      </c>
+      <c r="C169" t="s">
+        <v>758</v>
+      </c>
+      <c r="D169" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4">
+      <c r="A170" t="s">
+        <v>168</v>
+      </c>
+      <c r="B170" t="s">
+        <v>463</v>
+      </c>
+      <c r="C170" t="s">
+        <v>759</v>
+      </c>
+      <c r="D170" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4">
+      <c r="A171" t="s">
+        <v>169</v>
+      </c>
+      <c r="B171" t="s">
+        <v>464</v>
+      </c>
+      <c r="C171" t="s">
+        <v>760</v>
+      </c>
+      <c r="D171" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4">
+      <c r="A172" t="s">
+        <v>170</v>
+      </c>
+      <c r="B172" t="s">
+        <v>465</v>
+      </c>
+      <c r="C172" t="s">
+        <v>761</v>
+      </c>
+      <c r="D172" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4">
+      <c r="A173" t="s">
+        <v>171</v>
+      </c>
+      <c r="B173" t="s">
+        <v>466</v>
+      </c>
+      <c r="C173" t="s">
+        <v>762</v>
+      </c>
+      <c r="D173" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4">
+      <c r="A174" t="s">
+        <v>172</v>
+      </c>
+      <c r="B174" t="s">
+        <v>467</v>
+      </c>
+      <c r="C174" t="s">
+        <v>763</v>
+      </c>
+      <c r="D174" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4">
+      <c r="A175" t="s">
+        <v>173</v>
+      </c>
+      <c r="B175" t="s">
+        <v>468</v>
+      </c>
+      <c r="C175" t="s">
+        <v>764</v>
+      </c>
+      <c r="D175" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4">
+      <c r="A176" t="s">
+        <v>174</v>
+      </c>
+      <c r="B176" t="s">
+        <v>469</v>
+      </c>
+      <c r="C176" t="s">
+        <v>765</v>
+      </c>
+      <c r="D176" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4">
+      <c r="A177" t="s">
+        <v>175</v>
+      </c>
+      <c r="B177" t="s">
+        <v>470</v>
+      </c>
+      <c r="C177" t="s">
+        <v>766</v>
+      </c>
+      <c r="D177" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4">
+      <c r="A178" t="s">
+        <v>176</v>
+      </c>
+      <c r="B178" t="s">
+        <v>471</v>
+      </c>
+      <c r="C178" t="s">
+        <v>767</v>
+      </c>
+      <c r="D178" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4">
+      <c r="A179" t="s">
+        <v>177</v>
+      </c>
+      <c r="B179" t="s">
+        <v>472</v>
+      </c>
+      <c r="C179" t="s">
+        <v>768</v>
+      </c>
+      <c r="D179" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4">
+      <c r="A180" t="s">
+        <v>178</v>
+      </c>
+      <c r="B180" t="s">
+        <v>473</v>
+      </c>
+      <c r="C180" t="s">
+        <v>769</v>
+      </c>
+      <c r="D180" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4">
+      <c r="A181" t="s">
+        <v>179</v>
+      </c>
+      <c r="B181" t="s">
+        <v>474</v>
+      </c>
+      <c r="C181" t="s">
+        <v>770</v>
+      </c>
+      <c r="D181" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4">
+      <c r="A182" t="s">
+        <v>180</v>
+      </c>
+      <c r="B182" t="s">
+        <v>475</v>
+      </c>
+      <c r="C182" t="s">
+        <v>771</v>
+      </c>
+      <c r="D182" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4">
+      <c r="A183" t="s">
+        <v>181</v>
+      </c>
+      <c r="B183" t="s">
+        <v>476</v>
+      </c>
+      <c r="C183" t="s">
+        <v>772</v>
+      </c>
+      <c r="D183" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4">
+      <c r="A184" t="s">
+        <v>182</v>
+      </c>
+      <c r="B184" t="s">
+        <v>477</v>
+      </c>
+      <c r="C184" t="s">
+        <v>773</v>
+      </c>
+      <c r="D184" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4">
+      <c r="A185" t="s">
+        <v>183</v>
+      </c>
+      <c r="B185" t="s">
+        <v>478</v>
+      </c>
+      <c r="C185" t="s">
+        <v>774</v>
+      </c>
+      <c r="D185" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4">
+      <c r="A186" t="s">
+        <v>184</v>
+      </c>
+      <c r="B186" t="s">
+        <v>479</v>
+      </c>
+      <c r="C186" t="s">
+        <v>775</v>
+      </c>
+      <c r="D186" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4">
+      <c r="A187" t="s">
+        <v>185</v>
+      </c>
+      <c r="B187" t="s">
+        <v>480</v>
+      </c>
+      <c r="C187" t="s">
+        <v>776</v>
+      </c>
+      <c r="D187" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4">
+      <c r="A188" t="s">
+        <v>186</v>
+      </c>
+      <c r="B188" t="s">
+        <v>481</v>
+      </c>
+      <c r="C188" t="s">
+        <v>777</v>
+      </c>
+      <c r="D188" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4">
+      <c r="A189" t="s">
+        <v>187</v>
+      </c>
+      <c r="B189" t="s">
+        <v>482</v>
+      </c>
+      <c r="C189" t="s">
+        <v>778</v>
+      </c>
+      <c r="D189" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4">
+      <c r="A190" t="s">
+        <v>188</v>
+      </c>
+      <c r="B190" t="s">
+        <v>483</v>
+      </c>
+      <c r="C190" t="s">
+        <v>779</v>
+      </c>
+      <c r="D190" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4">
+      <c r="A191" t="s">
+        <v>189</v>
+      </c>
+      <c r="B191" t="s">
+        <v>484</v>
+      </c>
+      <c r="C191" t="s">
+        <v>780</v>
+      </c>
+      <c r="D191" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4">
+      <c r="A192" t="s">
+        <v>190</v>
+      </c>
+      <c r="B192" t="s">
+        <v>485</v>
+      </c>
+      <c r="C192" t="s">
+        <v>781</v>
+      </c>
+      <c r="D192" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4">
+      <c r="A193" t="s">
+        <v>191</v>
+      </c>
+      <c r="B193" t="s">
+        <v>486</v>
+      </c>
+      <c r="C193" t="s">
+        <v>782</v>
+      </c>
+      <c r="D193" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4">
+      <c r="A194" t="s">
+        <v>192</v>
+      </c>
+      <c r="B194" t="s">
+        <v>487</v>
+      </c>
+      <c r="C194" t="s">
+        <v>783</v>
+      </c>
+      <c r="D194" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4">
+      <c r="A195" t="s">
+        <v>193</v>
+      </c>
+      <c r="B195" t="s">
+        <v>488</v>
+      </c>
+      <c r="C195" t="s">
+        <v>784</v>
+      </c>
+      <c r="D195" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4">
+      <c r="A196" t="s">
+        <v>194</v>
+      </c>
+      <c r="B196" t="s">
+        <v>489</v>
+      </c>
+      <c r="C196" t="s">
+        <v>785</v>
+      </c>
+      <c r="D196" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4">
+      <c r="A197" t="s">
+        <v>195</v>
+      </c>
+      <c r="B197" t="s">
+        <v>490</v>
+      </c>
+      <c r="C197" t="s">
+        <v>786</v>
+      </c>
+      <c r="D197" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4">
+      <c r="A198" t="s">
+        <v>196</v>
+      </c>
+      <c r="B198" t="s">
+        <v>491</v>
+      </c>
+      <c r="C198" t="s">
+        <v>787</v>
+      </c>
+      <c r="D198" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4">
+      <c r="A199" t="s">
+        <v>197</v>
+      </c>
+      <c r="B199" t="s">
+        <v>492</v>
+      </c>
+      <c r="C199" t="s">
+        <v>788</v>
+      </c>
+      <c r="D199" t="s">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4">
+      <c r="A200" t="s">
+        <v>198</v>
+      </c>
+      <c r="B200" t="s">
+        <v>493</v>
+      </c>
+      <c r="C200" t="s">
+        <v>789</v>
+      </c>
+      <c r="D200" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4">
+      <c r="A201" t="s">
+        <v>61</v>
+      </c>
+      <c r="B201" t="s">
+        <v>359</v>
+      </c>
+      <c r="C201" t="s">
+        <v>654</v>
+      </c>
+      <c r="D201" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4">
+      <c r="A202" t="s">
+        <v>199</v>
+      </c>
+      <c r="B202" t="s">
+        <v>494</v>
+      </c>
+      <c r="C202" t="s">
+        <v>790</v>
+      </c>
+      <c r="D202" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4">
+      <c r="A203" t="s">
+        <v>200</v>
+      </c>
+      <c r="B203" t="s">
+        <v>495</v>
+      </c>
+      <c r="C203" t="s">
+        <v>791</v>
+      </c>
+      <c r="D203" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4">
+      <c r="A204" t="s">
+        <v>201</v>
+      </c>
+      <c r="B204" t="s">
+        <v>496</v>
+      </c>
+      <c r="C204" t="s">
+        <v>792</v>
+      </c>
+      <c r="D204" t="s">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4">
+      <c r="A205" t="s">
+        <v>202</v>
+      </c>
+      <c r="B205" t="s">
+        <v>497</v>
+      </c>
+      <c r="C205" t="s">
+        <v>793</v>
+      </c>
+      <c r="D205" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4">
+      <c r="A206" t="s">
+        <v>203</v>
+      </c>
+      <c r="B206" t="s">
+        <v>498</v>
+      </c>
+      <c r="C206" t="s">
+        <v>794</v>
+      </c>
+      <c r="D206" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4">
+      <c r="A207" t="s">
+        <v>204</v>
+      </c>
+      <c r="B207" t="s">
+        <v>499</v>
+      </c>
+      <c r="C207" t="s">
+        <v>795</v>
+      </c>
+      <c r="D207" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4">
+      <c r="A208" t="s">
+        <v>205</v>
+      </c>
+      <c r="B208" t="s">
+        <v>500</v>
+      </c>
+      <c r="C208" t="s">
+        <v>796</v>
+      </c>
+      <c r="D208" t="s">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4">
+      <c r="A209" t="s">
+        <v>206</v>
+      </c>
+      <c r="B209" t="s">
+        <v>501</v>
+      </c>
+      <c r="C209" t="s">
+        <v>797</v>
+      </c>
+      <c r="D209" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4">
+      <c r="A210" t="s">
+        <v>207</v>
+      </c>
+      <c r="B210" t="s">
+        <v>502</v>
+      </c>
+      <c r="C210" t="s">
+        <v>798</v>
+      </c>
+      <c r="D210" t="s">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4">
+      <c r="A211" t="s">
+        <v>208</v>
+      </c>
+      <c r="B211" t="s">
+        <v>503</v>
+      </c>
+      <c r="C211" t="s">
+        <v>799</v>
+      </c>
+      <c r="D211" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4">
+      <c r="A212" t="s">
+        <v>209</v>
+      </c>
+      <c r="B212" t="s">
+        <v>504</v>
+      </c>
+      <c r="C212" t="s">
+        <v>800</v>
+      </c>
+      <c r="D212" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4">
+      <c r="A213" t="s">
+        <v>210</v>
+      </c>
+      <c r="B213" t="s">
+        <v>505</v>
+      </c>
+      <c r="C213" t="s">
+        <v>801</v>
+      </c>
+      <c r="D213" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4">
+      <c r="A214" t="s">
+        <v>211</v>
+      </c>
+      <c r="B214" t="s">
+        <v>506</v>
+      </c>
+      <c r="C214" t="s">
+        <v>802</v>
+      </c>
+      <c r="D214" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4">
+      <c r="A215" t="s">
+        <v>212</v>
+      </c>
+      <c r="B215" t="s">
+        <v>507</v>
+      </c>
+      <c r="C215" t="s">
+        <v>803</v>
+      </c>
+      <c r="D215" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4">
+      <c r="A216" t="s">
+        <v>213</v>
+      </c>
+      <c r="B216" t="s">
+        <v>508</v>
+      </c>
+      <c r="C216" t="s">
+        <v>804</v>
+      </c>
+      <c r="D216" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4">
+      <c r="A217" t="s">
+        <v>214</v>
+      </c>
+      <c r="B217" t="s">
+        <v>509</v>
+      </c>
+      <c r="C217" t="s">
+        <v>805</v>
+      </c>
+      <c r="D217" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4">
+      <c r="A218" t="s">
+        <v>215</v>
+      </c>
+      <c r="B218" t="s">
+        <v>510</v>
+      </c>
+      <c r="C218" t="s">
+        <v>806</v>
+      </c>
+      <c r="D218" t="s">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4">
+      <c r="A219" t="s">
+        <v>216</v>
+      </c>
+      <c r="B219" t="s">
+        <v>511</v>
+      </c>
+      <c r="C219" t="s">
+        <v>807</v>
+      </c>
+      <c r="D219" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4">
+      <c r="A220" t="s">
+        <v>61</v>
+      </c>
+      <c r="B220" t="s">
+        <v>359</v>
+      </c>
+      <c r="C220" t="s">
+        <v>654</v>
+      </c>
+      <c r="D220" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4">
+      <c r="A221" t="s">
+        <v>217</v>
+      </c>
+      <c r="B221" t="s">
+        <v>512</v>
+      </c>
+      <c r="C221" t="s">
+        <v>808</v>
+      </c>
+      <c r="D221" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4">
+      <c r="A222" t="s">
+        <v>218</v>
+      </c>
+      <c r="B222" t="s">
+        <v>513</v>
+      </c>
+      <c r="C222" t="s">
+        <v>809</v>
+      </c>
+      <c r="D222" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4">
+      <c r="A223" t="s">
+        <v>219</v>
+      </c>
+      <c r="B223" t="s">
+        <v>514</v>
+      </c>
+      <c r="C223" t="s">
+        <v>810</v>
+      </c>
+      <c r="D223" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4">
+      <c r="A224" t="s">
+        <v>220</v>
+      </c>
+      <c r="B224" t="s">
+        <v>515</v>
+      </c>
+      <c r="C224" t="s">
+        <v>811</v>
+      </c>
+      <c r="D224" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4">
+      <c r="A225" t="s">
+        <v>221</v>
+      </c>
+      <c r="B225" t="s">
+        <v>516</v>
+      </c>
+      <c r="C225" t="s">
+        <v>812</v>
+      </c>
+      <c r="D225" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4">
+      <c r="A226" t="s">
+        <v>222</v>
+      </c>
+      <c r="B226" t="s">
+        <v>517</v>
+      </c>
+      <c r="C226" t="s">
+        <v>813</v>
+      </c>
+      <c r="D226" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4">
+      <c r="A227" t="s">
+        <v>223</v>
+      </c>
+      <c r="B227" t="s">
+        <v>518</v>
+      </c>
+      <c r="C227" t="s">
+        <v>814</v>
+      </c>
+      <c r="D227" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4">
+      <c r="A228" t="s">
+        <v>224</v>
+      </c>
+      <c r="B228" t="s">
+        <v>519</v>
+      </c>
+      <c r="C228" t="s">
+        <v>815</v>
+      </c>
+      <c r="D228" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4">
+      <c r="A229" t="s">
+        <v>225</v>
+      </c>
+      <c r="B229" t="s">
+        <v>520</v>
+      </c>
+      <c r="C229" t="s">
+        <v>816</v>
+      </c>
+      <c r="D229" t="s">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4">
+      <c r="A230" t="s">
+        <v>226</v>
+      </c>
+      <c r="B230" t="s">
+        <v>521</v>
+      </c>
+      <c r="C230" t="s">
+        <v>817</v>
+      </c>
+      <c r="D230" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4">
+      <c r="A231" t="s">
+        <v>227</v>
+      </c>
+      <c r="B231" t="s">
+        <v>522</v>
+      </c>
+      <c r="C231" t="s">
+        <v>818</v>
+      </c>
+      <c r="D231" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4">
+      <c r="A232" t="s">
+        <v>228</v>
+      </c>
+      <c r="B232" t="s">
+        <v>523</v>
+      </c>
+      <c r="C232" t="s">
+        <v>819</v>
+      </c>
+      <c r="D232" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4">
+      <c r="A233" t="s">
+        <v>229</v>
+      </c>
+      <c r="B233" t="s">
+        <v>524</v>
+      </c>
+      <c r="C233" t="s">
+        <v>820</v>
+      </c>
+      <c r="D233" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4">
+      <c r="A234" t="s">
+        <v>230</v>
+      </c>
+      <c r="B234" t="s">
+        <v>525</v>
+      </c>
+      <c r="C234" t="s">
+        <v>821</v>
+      </c>
+      <c r="D234" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4">
+      <c r="A235" t="s">
+        <v>231</v>
+      </c>
+      <c r="B235" t="s">
+        <v>526</v>
+      </c>
+      <c r="C235" t="s">
+        <v>822</v>
+      </c>
+      <c r="D235" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4">
+      <c r="A236" t="s">
+        <v>232</v>
+      </c>
+      <c r="B236" t="s">
+        <v>527</v>
+      </c>
+      <c r="C236" t="s">
+        <v>823</v>
+      </c>
+      <c r="D236" t="s">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4">
+      <c r="A237" t="s">
+        <v>233</v>
+      </c>
+      <c r="B237" t="s">
+        <v>528</v>
+      </c>
+      <c r="C237" t="s">
+        <v>824</v>
+      </c>
+      <c r="D237" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4">
+      <c r="A238" t="s">
+        <v>234</v>
+      </c>
+      <c r="B238" t="s">
+        <v>529</v>
+      </c>
+      <c r="C238" t="s">
+        <v>825</v>
+      </c>
+      <c r="D238" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4">
+      <c r="A239" t="s">
+        <v>235</v>
+      </c>
+      <c r="B239" t="s">
+        <v>530</v>
+      </c>
+      <c r="C239" t="s">
+        <v>826</v>
+      </c>
+      <c r="D239" t="s">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4">
+      <c r="A240" t="s">
+        <v>236</v>
+      </c>
+      <c r="B240" t="s">
+        <v>531</v>
+      </c>
+      <c r="C240" t="s">
+        <v>827</v>
+      </c>
+      <c r="D240" t="s">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4">
+      <c r="A241" t="s">
+        <v>237</v>
+      </c>
+      <c r="B241" t="s">
+        <v>532</v>
+      </c>
+      <c r="C241" t="s">
+        <v>828</v>
+      </c>
+      <c r="D241" t="s">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4">
+      <c r="A242" t="s">
+        <v>238</v>
+      </c>
+      <c r="B242" t="s">
+        <v>533</v>
+      </c>
+      <c r="C242" t="s">
+        <v>829</v>
+      </c>
+      <c r="D242" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4">
+      <c r="A243" t="s">
+        <v>239</v>
+      </c>
+      <c r="B243" t="s">
+        <v>534</v>
+      </c>
+      <c r="C243" t="s">
+        <v>830</v>
+      </c>
+      <c r="D243" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4">
+      <c r="A244" t="s">
+        <v>240</v>
+      </c>
+      <c r="B244" t="s">
+        <v>535</v>
+      </c>
+      <c r="C244" t="s">
+        <v>831</v>
+      </c>
+      <c r="D244" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4">
+      <c r="A245" t="s">
+        <v>241</v>
+      </c>
+      <c r="B245" t="s">
+        <v>536</v>
+      </c>
+      <c r="C245" t="s">
+        <v>832</v>
+      </c>
+      <c r="D245" t="s">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4">
+      <c r="A246" t="s">
+        <v>242</v>
+      </c>
+      <c r="B246" t="s">
+        <v>537</v>
+      </c>
+      <c r="C246" t="s">
+        <v>833</v>
+      </c>
+      <c r="D246" t="s">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4">
+      <c r="A247" t="s">
+        <v>243</v>
+      </c>
+      <c r="B247" t="s">
+        <v>538</v>
+      </c>
+      <c r="C247" t="s">
+        <v>834</v>
+      </c>
+      <c r="D247" t="s">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4">
+      <c r="A248" t="s">
+        <v>244</v>
+      </c>
+      <c r="B248" t="s">
+        <v>539</v>
+      </c>
+      <c r="C248" t="s">
+        <v>835</v>
+      </c>
+      <c r="D248" t="s">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4">
+      <c r="A249" t="s">
+        <v>245</v>
+      </c>
+      <c r="B249" t="s">
+        <v>540</v>
+      </c>
+      <c r="C249" t="s">
+        <v>836</v>
+      </c>
+      <c r="D249" t="s">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4">
+      <c r="A250" t="s">
+        <v>246</v>
+      </c>
+      <c r="B250" t="s">
+        <v>541</v>
+      </c>
+      <c r="C250" t="s">
+        <v>837</v>
+      </c>
+      <c r="D250" t="s">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4">
+      <c r="A251" t="s">
+        <v>247</v>
+      </c>
+      <c r="B251" t="s">
+        <v>542</v>
+      </c>
+      <c r="C251" t="s">
+        <v>838</v>
+      </c>
+      <c r="D251" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4">
+      <c r="A252" t="s">
+        <v>248</v>
+      </c>
+      <c r="B252" t="s">
+        <v>543</v>
+      </c>
+      <c r="C252" t="s">
+        <v>839</v>
+      </c>
+      <c r="D252" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4">
+      <c r="A253" t="s">
+        <v>249</v>
+      </c>
+      <c r="B253" t="s">
+        <v>544</v>
+      </c>
+      <c r="C253" t="s">
+        <v>840</v>
+      </c>
+      <c r="D253" t="s">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4">
+      <c r="A254" t="s">
+        <v>250</v>
+      </c>
+      <c r="B254" t="s">
+        <v>545</v>
+      </c>
+      <c r="C254" t="s">
+        <v>841</v>
+      </c>
+      <c r="D254" t="s">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4">
+      <c r="A255" t="s">
+        <v>251</v>
+      </c>
+      <c r="B255" t="s">
+        <v>546</v>
+      </c>
+      <c r="C255" t="s">
+        <v>842</v>
+      </c>
+      <c r="D255" t="s">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4">
+      <c r="A256" t="s">
+        <v>252</v>
+      </c>
+      <c r="B256" t="s">
+        <v>547</v>
+      </c>
+      <c r="C256" t="s">
+        <v>843</v>
+      </c>
+      <c r="D256" t="s">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4">
+      <c r="A257" t="s">
+        <v>253</v>
+      </c>
+      <c r="B257" t="s">
+        <v>548</v>
+      </c>
+      <c r="C257" t="s">
+        <v>844</v>
+      </c>
+      <c r="D257" t="s">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4">
+      <c r="A258" t="s">
+        <v>254</v>
+      </c>
+      <c r="B258" t="s">
+        <v>549</v>
+      </c>
+      <c r="C258" t="s">
+        <v>845</v>
+      </c>
+      <c r="D258" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4">
+      <c r="A259" t="s">
+        <v>255</v>
+      </c>
+      <c r="B259" t="s">
+        <v>550</v>
+      </c>
+      <c r="C259" t="s">
+        <v>846</v>
+      </c>
+      <c r="D259" t="s">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4">
+      <c r="A260" t="s">
+        <v>256</v>
+      </c>
+      <c r="B260" t="s">
+        <v>551</v>
+      </c>
+      <c r="C260" t="s">
+        <v>847</v>
+      </c>
+      <c r="D260" t="s">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4">
+      <c r="A261" t="s">
+        <v>257</v>
+      </c>
+      <c r="B261" t="s">
+        <v>552</v>
+      </c>
+      <c r="C261" t="s">
+        <v>848</v>
+      </c>
+      <c r="D261" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4">
+      <c r="A262" t="s">
+        <v>258</v>
+      </c>
+      <c r="B262" t="s">
+        <v>553</v>
+      </c>
+      <c r="C262" t="s">
+        <v>849</v>
+      </c>
+      <c r="D262" t="s">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4">
+      <c r="A263" t="s">
+        <v>259</v>
+      </c>
+      <c r="B263" t="s">
+        <v>554</v>
+      </c>
+      <c r="C263" t="s">
+        <v>850</v>
+      </c>
+      <c r="D263" t="s">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4">
+      <c r="A264" t="s">
+        <v>260</v>
+      </c>
+      <c r="B264" t="s">
+        <v>555</v>
+      </c>
+      <c r="C264" t="s">
+        <v>851</v>
+      </c>
+      <c r="D264" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4">
+      <c r="A265" t="s">
+        <v>261</v>
+      </c>
+      <c r="B265" t="s">
+        <v>556</v>
+      </c>
+      <c r="C265" t="s">
+        <v>852</v>
+      </c>
+      <c r="D265" t="s">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4">
+      <c r="A266" t="s">
+        <v>262</v>
+      </c>
+      <c r="B266" t="s">
+        <v>557</v>
+      </c>
+      <c r="C266" t="s">
+        <v>853</v>
+      </c>
+      <c r="D266" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4">
+      <c r="A267" t="s">
+        <v>263</v>
+      </c>
+      <c r="B267" t="s">
+        <v>558</v>
+      </c>
+      <c r="C267" t="s">
+        <v>854</v>
+      </c>
+      <c r="D267" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4">
+      <c r="A268" t="s">
+        <v>264</v>
+      </c>
+      <c r="B268" t="s">
+        <v>559</v>
+      </c>
+      <c r="C268" t="s">
+        <v>855</v>
+      </c>
+      <c r="D268" t="s">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4">
+      <c r="A269" t="s">
+        <v>265</v>
+      </c>
+      <c r="B269" t="s">
+        <v>560</v>
+      </c>
+      <c r="C269" t="s">
+        <v>856</v>
+      </c>
+      <c r="D269" t="s">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4">
+      <c r="A270" t="s">
+        <v>266</v>
+      </c>
+      <c r="B270" t="s">
+        <v>561</v>
+      </c>
+      <c r="C270" t="s">
+        <v>857</v>
+      </c>
+      <c r="D270" t="s">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4">
+      <c r="A271" t="s">
+        <v>267</v>
+      </c>
+      <c r="B271" t="s">
+        <v>562</v>
+      </c>
+      <c r="C271" t="s">
+        <v>858</v>
+      </c>
+      <c r="D271" t="s">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4">
+      <c r="A272" t="s">
+        <v>268</v>
+      </c>
+      <c r="B272" t="s">
+        <v>563</v>
+      </c>
+      <c r="C272" t="s">
+        <v>859</v>
+      </c>
+      <c r="D272" t="s">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4">
+      <c r="A273" t="s">
+        <v>269</v>
+      </c>
+      <c r="B273" t="s">
+        <v>564</v>
+      </c>
+      <c r="C273" t="s">
+        <v>860</v>
+      </c>
+      <c r="D273" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4">
+      <c r="A274" t="s">
+        <v>270</v>
+      </c>
+      <c r="B274" t="s">
+        <v>565</v>
+      </c>
+      <c r="C274" t="s">
+        <v>861</v>
+      </c>
+      <c r="D274" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4">
+      <c r="A275" t="s">
+        <v>271</v>
+      </c>
+      <c r="B275" t="s">
+        <v>566</v>
+      </c>
+      <c r="C275" t="s">
+        <v>862</v>
+      </c>
+      <c r="D275" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4">
+      <c r="A276" t="s">
+        <v>272</v>
+      </c>
+      <c r="B276" t="s">
+        <v>567</v>
+      </c>
+      <c r="C276" t="s">
+        <v>863</v>
+      </c>
+      <c r="D276" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4">
+      <c r="A277" t="s">
+        <v>273</v>
+      </c>
+      <c r="B277" t="s">
+        <v>568</v>
+      </c>
+      <c r="C277" t="s">
+        <v>864</v>
+      </c>
+      <c r="D277" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4">
+      <c r="A278" t="s">
+        <v>274</v>
+      </c>
+      <c r="B278" t="s">
+        <v>569</v>
+      </c>
+      <c r="C278" t="s">
+        <v>865</v>
+      </c>
+      <c r="D278" t="s">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4">
+      <c r="A279" t="s">
+        <v>275</v>
+      </c>
+      <c r="B279" t="s">
+        <v>570</v>
+      </c>
+      <c r="C279" t="s">
+        <v>866</v>
+      </c>
+      <c r="D279" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4">
+      <c r="A280" t="s">
+        <v>276</v>
+      </c>
+      <c r="B280" t="s">
+        <v>571</v>
+      </c>
+      <c r="C280" t="s">
+        <v>867</v>
+      </c>
+      <c r="D280" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4">
+      <c r="A281" t="s">
+        <v>277</v>
+      </c>
+      <c r="B281" t="s">
+        <v>572</v>
+      </c>
+      <c r="C281" t="s">
+        <v>868</v>
+      </c>
+      <c r="D281" t="s">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4">
+      <c r="A282" t="s">
+        <v>278</v>
+      </c>
+      <c r="B282" t="s">
+        <v>573</v>
+      </c>
+      <c r="C282" t="s">
+        <v>869</v>
+      </c>
+      <c r="D282" t="s">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4">
+      <c r="A283" t="s">
+        <v>279</v>
+      </c>
+      <c r="B283" t="s">
+        <v>574</v>
+      </c>
+      <c r="C283" t="s">
+        <v>870</v>
+      </c>
+      <c r="D283" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4">
+      <c r="A284" t="s">
+        <v>280</v>
+      </c>
+      <c r="B284" t="s">
+        <v>575</v>
+      </c>
+      <c r="C284" t="s">
+        <v>871</v>
+      </c>
+      <c r="D284" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4">
+      <c r="A285" t="s">
+        <v>281</v>
+      </c>
+      <c r="B285" t="s">
+        <v>576</v>
+      </c>
+      <c r="C285" t="s">
+        <v>872</v>
+      </c>
+      <c r="D285" t="s">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4">
+      <c r="A286" t="s">
+        <v>282</v>
+      </c>
+      <c r="B286" t="s">
+        <v>577</v>
+      </c>
+      <c r="C286" t="s">
+        <v>873</v>
+      </c>
+      <c r="D286" t="s">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4">
+      <c r="A287" t="s">
+        <v>283</v>
+      </c>
+      <c r="B287" t="s">
+        <v>578</v>
+      </c>
+      <c r="C287" t="s">
+        <v>874</v>
+      </c>
+      <c r="D287" t="s">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4">
+      <c r="A288" t="s">
+        <v>284</v>
+      </c>
+      <c r="B288" t="s">
+        <v>579</v>
+      </c>
+      <c r="C288" t="s">
+        <v>875</v>
+      </c>
+      <c r="D288" t="s">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4">
+      <c r="A289" t="s">
+        <v>285</v>
+      </c>
+      <c r="B289" t="s">
+        <v>580</v>
+      </c>
+      <c r="C289" t="s">
+        <v>876</v>
+      </c>
+      <c r="D289" t="s">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4">
+      <c r="A290" t="s">
+        <v>286</v>
+      </c>
+      <c r="B290" t="s">
+        <v>581</v>
+      </c>
+      <c r="C290" t="s">
+        <v>877</v>
+      </c>
+      <c r="D290" t="s">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4">
+      <c r="A291" t="s">
+        <v>287</v>
+      </c>
+      <c r="B291" t="s">
+        <v>582</v>
+      </c>
+      <c r="C291" t="s">
+        <v>878</v>
+      </c>
+      <c r="D291" t="s">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4">
+      <c r="A292" t="s">
+        <v>288</v>
+      </c>
+      <c r="B292" t="s">
+        <v>583</v>
+      </c>
+      <c r="C292" t="s">
+        <v>879</v>
+      </c>
+      <c r="D292" t="s">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4">
+      <c r="A293" t="s">
+        <v>289</v>
+      </c>
+      <c r="B293" t="s">
+        <v>584</v>
+      </c>
+      <c r="C293" t="s">
+        <v>880</v>
+      </c>
+      <c r="D293" t="s">
+        <v>1176</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4">
+      <c r="A294" t="s">
+        <v>290</v>
+      </c>
+      <c r="B294" t="s">
+        <v>585</v>
+      </c>
+      <c r="C294" t="s">
+        <v>881</v>
+      </c>
+      <c r="D294" t="s">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4">
+      <c r="A295" t="s">
+        <v>291</v>
+      </c>
+      <c r="B295" t="s">
+        <v>586</v>
+      </c>
+      <c r="C295" t="s">
+        <v>882</v>
+      </c>
+      <c r="D295" t="s">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4">
+      <c r="A296" t="s">
+        <v>292</v>
+      </c>
+      <c r="B296" t="s">
+        <v>587</v>
+      </c>
+      <c r="C296" t="s">
+        <v>883</v>
+      </c>
+      <c r="D296" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4">
+      <c r="A297" t="s">
+        <v>293</v>
+      </c>
+      <c r="B297" t="s">
+        <v>588</v>
+      </c>
+      <c r="C297" t="s">
+        <v>884</v>
+      </c>
+      <c r="D297" t="s">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4">
+      <c r="A298" t="s">
+        <v>294</v>
+      </c>
+      <c r="B298" t="s">
+        <v>589</v>
+      </c>
+      <c r="C298" t="s">
+        <v>885</v>
+      </c>
+      <c r="D298" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4">
+      <c r="A299" t="s">
+        <v>295</v>
+      </c>
+      <c r="B299" t="s">
+        <v>590</v>
+      </c>
+      <c r="C299" t="s">
+        <v>886</v>
+      </c>
+      <c r="D299" t="s">
+        <v>1182</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4">
+      <c r="A300" t="s">
+        <v>296</v>
+      </c>
+      <c r="B300" t="s">
+        <v>591</v>
+      </c>
+      <c r="C300" t="s">
+        <v>887</v>
+      </c>
+      <c r="D300" t="s">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4">
+      <c r="A301" t="s">
+        <v>297</v>
+      </c>
+      <c r="B301" t="s">
+        <v>592</v>
+      </c>
+      <c r="C301" t="s">
+        <v>888</v>
+      </c>
+      <c r="D301" t="s">
+        <v>1184</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4">
+      <c r="A302" t="s">
+        <v>298</v>
+      </c>
+      <c r="B302" t="s">
+        <v>593</v>
+      </c>
+      <c r="C302" t="s">
+        <v>889</v>
+      </c>
+      <c r="D302" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4">
+      <c r="A303" t="s">
+        <v>299</v>
+      </c>
+      <c r="B303" t="s">
+        <v>594</v>
+      </c>
+      <c r="C303" t="s">
+        <v>890</v>
+      </c>
+      <c r="D303" t="s">
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4">
+      <c r="A304" t="s">
+        <v>300</v>
+      </c>
+      <c r="B304" t="s">
+        <v>595</v>
+      </c>
+      <c r="C304" t="s">
+        <v>891</v>
+      </c>
+      <c r="D304" t="s">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4">
+      <c r="A305" t="s">
         <v>301</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B305" t="s">
         <v>596</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>302</v>
-      </c>
-      <c r="C3" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>303</v>
-      </c>
-      <c r="C4" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>304</v>
-      </c>
-      <c r="C5" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" t="s">
-        <v>305</v>
-      </c>
-      <c r="C6" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" t="s">
-        <v>306</v>
-      </c>
-      <c r="C7" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" t="s">
-        <v>307</v>
-      </c>
-      <c r="C8" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" t="s">
-        <v>308</v>
-      </c>
-      <c r="C9" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" t="s">
-        <v>309</v>
-      </c>
-      <c r="C10" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" t="s">
-        <v>310</v>
-      </c>
-      <c r="C11" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" t="s">
-        <v>311</v>
-      </c>
-      <c r="C12" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" t="s">
-        <v>312</v>
-      </c>
-      <c r="C13" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" t="s">
-        <v>313</v>
-      </c>
-      <c r="C14" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" t="s">
-        <v>314</v>
-      </c>
-      <c r="C15" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" t="s">
-        <v>315</v>
-      </c>
-      <c r="C16" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" t="s">
-        <v>316</v>
-      </c>
-      <c r="C17" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" t="s">
-        <v>317</v>
-      </c>
-      <c r="C18" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" t="s">
-        <v>318</v>
-      </c>
-      <c r="C19" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" t="s">
-        <v>21</v>
-      </c>
-      <c r="B20" t="s">
-        <v>319</v>
-      </c>
-      <c r="C20" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21" t="s">
-        <v>320</v>
-      </c>
-      <c r="C21" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" t="s">
-        <v>321</v>
-      </c>
-      <c r="C22" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" t="s">
-        <v>322</v>
-      </c>
-      <c r="C23" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" t="s">
-        <v>25</v>
-      </c>
-      <c r="B24" t="s">
-        <v>323</v>
-      </c>
-      <c r="C24" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" t="s">
-        <v>26</v>
-      </c>
-      <c r="B25" t="s">
-        <v>324</v>
-      </c>
-      <c r="C25" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" t="s">
-        <v>27</v>
-      </c>
-      <c r="B26" t="s">
-        <v>325</v>
-      </c>
-      <c r="C26" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" t="s">
-        <v>28</v>
-      </c>
-      <c r="B27" t="s">
-        <v>326</v>
-      </c>
-      <c r="C27" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" t="s">
-        <v>29</v>
-      </c>
-      <c r="B28" t="s">
-        <v>327</v>
-      </c>
-      <c r="C28" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" t="s">
-        <v>30</v>
-      </c>
-      <c r="B29" t="s">
-        <v>328</v>
-      </c>
-      <c r="C29" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" t="s">
-        <v>31</v>
-      </c>
-      <c r="B30" t="s">
-        <v>329</v>
-      </c>
-      <c r="C30" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" t="s">
-        <v>32</v>
-      </c>
-      <c r="B31" t="s">
-        <v>330</v>
-      </c>
-      <c r="C31" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" t="s">
-        <v>33</v>
-      </c>
-      <c r="B32" t="s">
-        <v>331</v>
-      </c>
-      <c r="C32" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" t="s">
-        <v>34</v>
-      </c>
-      <c r="B33" t="s">
-        <v>332</v>
-      </c>
-      <c r="C33" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" t="s">
-        <v>35</v>
-      </c>
-      <c r="B34" t="s">
-        <v>333</v>
-      </c>
-      <c r="C34" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" t="s">
-        <v>36</v>
-      </c>
-      <c r="B35" t="s">
-        <v>334</v>
-      </c>
-      <c r="C35" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" t="s">
-        <v>37</v>
-      </c>
-      <c r="B36" t="s">
-        <v>335</v>
-      </c>
-      <c r="C36" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" t="s">
-        <v>38</v>
-      </c>
-      <c r="B37" t="s">
-        <v>336</v>
-      </c>
-      <c r="C37" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" t="s">
-        <v>39</v>
-      </c>
-      <c r="B38" t="s">
-        <v>337</v>
-      </c>
-      <c r="C38" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" t="s">
-        <v>40</v>
-      </c>
-      <c r="B39" t="s">
-        <v>338</v>
-      </c>
-      <c r="C39" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" t="s">
-        <v>41</v>
-      </c>
-      <c r="B40" t="s">
-        <v>339</v>
-      </c>
-      <c r="C40" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41" t="s">
-        <v>42</v>
-      </c>
-      <c r="B41" t="s">
-        <v>340</v>
-      </c>
-      <c r="C41" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42" t="s">
-        <v>43</v>
-      </c>
-      <c r="B42" t="s">
-        <v>341</v>
-      </c>
-      <c r="C42" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43" t="s">
-        <v>44</v>
-      </c>
-      <c r="B43" t="s">
-        <v>342</v>
-      </c>
-      <c r="C43" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44" t="s">
-        <v>45</v>
-      </c>
-      <c r="B44" t="s">
-        <v>343</v>
-      </c>
-      <c r="C44" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="A45" t="s">
-        <v>46</v>
-      </c>
-      <c r="B45" t="s">
-        <v>344</v>
-      </c>
-      <c r="C45" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="A46" t="s">
-        <v>47</v>
-      </c>
-      <c r="B46" t="s">
-        <v>345</v>
-      </c>
-      <c r="C46" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
-      <c r="A47" t="s">
-        <v>48</v>
-      </c>
-      <c r="B47" t="s">
-        <v>346</v>
-      </c>
-      <c r="C47" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
-      <c r="A48" t="s">
-        <v>49</v>
-      </c>
-      <c r="B48" t="s">
-        <v>347</v>
-      </c>
-      <c r="C48" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
-      <c r="A49" t="s">
-        <v>50</v>
-      </c>
-      <c r="B49" t="s">
-        <v>348</v>
-      </c>
-      <c r="C49" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
-      <c r="A50" t="s">
-        <v>51</v>
-      </c>
-      <c r="B50" t="s">
-        <v>349</v>
-      </c>
-      <c r="C50" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
-      <c r="A51" t="s">
-        <v>52</v>
-      </c>
-      <c r="B51" t="s">
-        <v>350</v>
-      </c>
-      <c r="C51" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
-      <c r="A52" t="s">
-        <v>53</v>
-      </c>
-      <c r="B52" t="s">
-        <v>351</v>
-      </c>
-      <c r="C52" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
-      <c r="A53" t="s">
-        <v>54</v>
-      </c>
-      <c r="B53" t="s">
-        <v>352</v>
-      </c>
-      <c r="C53" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
-      <c r="A54" t="s">
-        <v>55</v>
-      </c>
-      <c r="B54" t="s">
-        <v>353</v>
-      </c>
-      <c r="C54" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
-      <c r="A55" t="s">
-        <v>56</v>
-      </c>
-      <c r="B55" t="s">
-        <v>354</v>
-      </c>
-      <c r="C55" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
-      <c r="A56" t="s">
-        <v>57</v>
-      </c>
-      <c r="B56" t="s">
-        <v>355</v>
-      </c>
-      <c r="C56" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
-      <c r="A57" t="s">
-        <v>58</v>
-      </c>
-      <c r="B57" t="s">
-        <v>356</v>
-      </c>
-      <c r="C57" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3">
-      <c r="A58" t="s">
-        <v>59</v>
-      </c>
-      <c r="B58" t="s">
-        <v>357</v>
-      </c>
-      <c r="C58" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
-      <c r="A59" t="s">
-        <v>60</v>
-      </c>
-      <c r="B59" t="s">
-        <v>358</v>
-      </c>
-      <c r="C59" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
-      <c r="A60" t="s">
-        <v>61</v>
-      </c>
-      <c r="B60" t="s">
-        <v>359</v>
-      </c>
-      <c r="C60" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
-      <c r="A61" t="s">
-        <v>62</v>
-      </c>
-      <c r="B61" t="s">
-        <v>360</v>
-      </c>
-      <c r="C61" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
-      <c r="A62" t="s">
-        <v>63</v>
-      </c>
-      <c r="B62" t="s">
-        <v>361</v>
-      </c>
-      <c r="C62" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
-      <c r="A63" t="s">
-        <v>64</v>
-      </c>
-      <c r="B63" t="s">
-        <v>362</v>
-      </c>
-      <c r="C63" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
-      <c r="A64" t="s">
-        <v>65</v>
-      </c>
-      <c r="B64" t="s">
-        <v>363</v>
-      </c>
-      <c r="C64" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
-      <c r="A65" t="s">
-        <v>66</v>
-      </c>
-      <c r="B65" t="s">
-        <v>364</v>
-      </c>
-      <c r="C65" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
-      <c r="A66" t="s">
-        <v>67</v>
-      </c>
-      <c r="B66" t="s">
-        <v>365</v>
-      </c>
-      <c r="C66" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
-      <c r="A67" t="s">
-        <v>68</v>
-      </c>
-      <c r="B67" t="s">
-        <v>366</v>
-      </c>
-      <c r="C67" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
-      <c r="A68" t="s">
-        <v>69</v>
-      </c>
-      <c r="B68" t="s">
-        <v>367</v>
-      </c>
-      <c r="C68" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
-      <c r="A69" t="s">
-        <v>70</v>
-      </c>
-      <c r="B69" t="s">
-        <v>368</v>
-      </c>
-      <c r="C69" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
-      <c r="A70" t="s">
-        <v>71</v>
-      </c>
-      <c r="B70" t="s">
-        <v>369</v>
-      </c>
-      <c r="C70" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
-      <c r="A71" t="s">
-        <v>72</v>
-      </c>
-      <c r="B71" t="s">
-        <v>370</v>
-      </c>
-      <c r="C71" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
-      <c r="A72" t="s">
-        <v>73</v>
-      </c>
-      <c r="B72" t="s">
-        <v>371</v>
-      </c>
-      <c r="C72" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
-      <c r="A73" t="s">
-        <v>74</v>
-      </c>
-      <c r="B73" t="s">
-        <v>372</v>
-      </c>
-      <c r="C73" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
-      <c r="A74" t="s">
-        <v>75</v>
-      </c>
-      <c r="B74" t="s">
-        <v>373</v>
-      </c>
-      <c r="C74" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
-      <c r="A75" t="s">
-        <v>76</v>
-      </c>
-      <c r="B75" t="s">
-        <v>374</v>
-      </c>
-      <c r="C75" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
-      <c r="A76" t="s">
-        <v>77</v>
-      </c>
-      <c r="B76" t="s">
-        <v>375</v>
-      </c>
-      <c r="C76" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
-      <c r="A77" t="s">
-        <v>78</v>
-      </c>
-      <c r="B77" t="s">
-        <v>376</v>
-      </c>
-      <c r="C77" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
-      <c r="A78" t="s">
-        <v>79</v>
-      </c>
-      <c r="B78" t="s">
-        <v>377</v>
-      </c>
-      <c r="C78" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
-      <c r="A79" t="s">
-        <v>80</v>
-      </c>
-      <c r="B79" t="s">
-        <v>378</v>
-      </c>
-      <c r="C79" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
-      <c r="A80" t="s">
-        <v>81</v>
-      </c>
-      <c r="B80" t="s">
-        <v>379</v>
-      </c>
-      <c r="C80" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
-      <c r="A81" t="s">
-        <v>82</v>
-      </c>
-      <c r="B81" t="s">
-        <v>380</v>
-      </c>
-      <c r="C81" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
-      <c r="A82" t="s">
-        <v>83</v>
-      </c>
-      <c r="B82" t="s">
-        <v>381</v>
-      </c>
-      <c r="C82" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
-      <c r="A83" t="s">
-        <v>84</v>
-      </c>
-      <c r="B83" t="s">
-        <v>382</v>
-      </c>
-      <c r="C83" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
-      <c r="A84" t="s">
-        <v>85</v>
-      </c>
-      <c r="B84" t="s">
-        <v>383</v>
-      </c>
-      <c r="C84" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
-      <c r="A85" t="s">
-        <v>86</v>
-      </c>
-      <c r="B85" t="s">
-        <v>384</v>
-      </c>
-      <c r="C85" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
-      <c r="A86" t="s">
-        <v>87</v>
-      </c>
-      <c r="B86" t="s">
-        <v>87</v>
-      </c>
-      <c r="C86" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
-      <c r="A87" t="s">
-        <v>88</v>
-      </c>
-      <c r="B87" t="s">
-        <v>385</v>
-      </c>
-      <c r="C87" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
-      <c r="A88" t="s">
-        <v>89</v>
-      </c>
-      <c r="B88" t="s">
-        <v>386</v>
-      </c>
-      <c r="C88" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
-      <c r="A89" t="s">
-        <v>90</v>
-      </c>
-      <c r="B89" t="s">
-        <v>90</v>
-      </c>
-      <c r="C89" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
-      <c r="A90" t="s">
-        <v>91</v>
-      </c>
-      <c r="B90" t="s">
-        <v>387</v>
-      </c>
-      <c r="C90" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
-      <c r="A91" t="s">
-        <v>92</v>
-      </c>
-      <c r="B91" t="s">
-        <v>388</v>
-      </c>
-      <c r="C91" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
-      <c r="A92" t="s">
-        <v>93</v>
-      </c>
-      <c r="B92" t="s">
-        <v>389</v>
-      </c>
-      <c r="C92" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
-      <c r="A93" t="s">
-        <v>94</v>
-      </c>
-      <c r="B93" t="s">
-        <v>390</v>
-      </c>
-      <c r="C93" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
-      <c r="A94" t="s">
-        <v>42</v>
-      </c>
-      <c r="B94" t="s">
-        <v>340</v>
-      </c>
-      <c r="C94" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
-      <c r="A95" t="s">
-        <v>95</v>
-      </c>
-      <c r="B95" t="s">
-        <v>391</v>
-      </c>
-      <c r="C95" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
-      <c r="A96" t="s">
-        <v>96</v>
-      </c>
-      <c r="B96" t="s">
-        <v>392</v>
-      </c>
-      <c r="C96" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3">
-      <c r="A97" t="s">
-        <v>97</v>
-      </c>
-      <c r="B97" t="s">
-        <v>393</v>
-      </c>
-      <c r="C97" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
-      <c r="A98" t="s">
-        <v>60</v>
-      </c>
-      <c r="B98" t="s">
-        <v>358</v>
-      </c>
-      <c r="C98" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
-      <c r="A99" t="s">
-        <v>98</v>
-      </c>
-      <c r="B99" t="s">
-        <v>394</v>
-      </c>
-      <c r="C99" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
-      <c r="A100" t="s">
-        <v>99</v>
-      </c>
-      <c r="B100" t="s">
-        <v>395</v>
-      </c>
-      <c r="C100" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3">
-      <c r="A101" t="s">
-        <v>100</v>
-      </c>
-      <c r="B101" t="s">
-        <v>396</v>
-      </c>
-      <c r="C101" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
-      <c r="A102" t="s">
-        <v>101</v>
-      </c>
-      <c r="B102" t="s">
-        <v>397</v>
-      </c>
-      <c r="C102" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3">
-      <c r="A103" t="s">
-        <v>102</v>
-      </c>
-      <c r="B103" t="s">
-        <v>398</v>
-      </c>
-      <c r="C103" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3">
-      <c r="A104" t="s">
-        <v>103</v>
-      </c>
-      <c r="B104" t="s">
-        <v>399</v>
-      </c>
-      <c r="C104" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3">
-      <c r="A105" t="s">
-        <v>104</v>
-      </c>
-      <c r="B105" t="s">
-        <v>400</v>
-      </c>
-      <c r="C105" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3">
-      <c r="A106" t="s">
-        <v>105</v>
-      </c>
-      <c r="B106" t="s">
-        <v>401</v>
-      </c>
-      <c r="C106" t="s">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3">
-      <c r="A107" t="s">
-        <v>106</v>
-      </c>
-      <c r="B107" t="s">
-        <v>402</v>
-      </c>
-      <c r="C107" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3">
-      <c r="A108" t="s">
-        <v>107</v>
-      </c>
-      <c r="B108" t="s">
-        <v>403</v>
-      </c>
-      <c r="C108" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3">
-      <c r="A109" t="s">
-        <v>108</v>
-      </c>
-      <c r="B109" t="s">
-        <v>404</v>
-      </c>
-      <c r="C109" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3">
-      <c r="A110" t="s">
-        <v>109</v>
-      </c>
-      <c r="B110" t="s">
-        <v>405</v>
-      </c>
-      <c r="C110" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3">
-      <c r="A111" t="s">
-        <v>110</v>
-      </c>
-      <c r="B111" t="s">
-        <v>406</v>
-      </c>
-      <c r="C111" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3">
-      <c r="A112" t="s">
-        <v>111</v>
-      </c>
-      <c r="B112" t="s">
-        <v>407</v>
-      </c>
-      <c r="C112" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3">
-      <c r="A113" t="s">
-        <v>112</v>
-      </c>
-      <c r="B113" t="s">
-        <v>408</v>
-      </c>
-      <c r="C113" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3">
-      <c r="A114" t="s">
-        <v>113</v>
-      </c>
-      <c r="B114" t="s">
-        <v>409</v>
-      </c>
-      <c r="C114" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3">
-      <c r="A115" t="s">
-        <v>114</v>
-      </c>
-      <c r="B115" t="s">
-        <v>410</v>
-      </c>
-      <c r="C115" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3">
-      <c r="A116" t="s">
-        <v>115</v>
-      </c>
-      <c r="B116" t="s">
-        <v>411</v>
-      </c>
-      <c r="C116" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3">
-      <c r="A117" t="s">
-        <v>116</v>
-      </c>
-      <c r="B117" t="s">
-        <v>412</v>
-      </c>
-      <c r="C117" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3">
-      <c r="A118" t="s">
-        <v>117</v>
-      </c>
-      <c r="B118" t="s">
-        <v>413</v>
-      </c>
-      <c r="C118" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3">
-      <c r="A119" t="s">
-        <v>118</v>
-      </c>
-      <c r="B119" t="s">
-        <v>414</v>
-      </c>
-      <c r="C119" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3">
-      <c r="A120" t="s">
-        <v>119</v>
-      </c>
-      <c r="B120" t="s">
-        <v>415</v>
-      </c>
-      <c r="C120" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3">
-      <c r="A121" t="s">
-        <v>120</v>
-      </c>
-      <c r="B121" t="s">
-        <v>416</v>
-      </c>
-      <c r="C121" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3">
-      <c r="A122" t="s">
-        <v>121</v>
-      </c>
-      <c r="B122" t="s">
-        <v>417</v>
-      </c>
-      <c r="C122" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3">
-      <c r="A123" t="s">
-        <v>122</v>
-      </c>
-      <c r="B123" t="s">
-        <v>418</v>
-      </c>
-      <c r="C123" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3">
-      <c r="A124" t="s">
-        <v>123</v>
-      </c>
-      <c r="B124" t="s">
-        <v>419</v>
-      </c>
-      <c r="C124" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3">
-      <c r="A125" t="s">
-        <v>124</v>
-      </c>
-      <c r="B125" t="s">
-        <v>420</v>
-      </c>
-      <c r="C125" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3">
-      <c r="A126" t="s">
-        <v>125</v>
-      </c>
-      <c r="B126" t="s">
-        <v>421</v>
-      </c>
-      <c r="C126" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3">
-      <c r="A127" t="s">
-        <v>126</v>
-      </c>
-      <c r="B127" t="s">
-        <v>422</v>
-      </c>
-      <c r="C127" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3">
-      <c r="A128" t="s">
-        <v>127</v>
-      </c>
-      <c r="B128" t="s">
-        <v>423</v>
-      </c>
-      <c r="C128" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3">
-      <c r="A129" t="s">
-        <v>128</v>
-      </c>
-      <c r="B129" t="s">
-        <v>424</v>
-      </c>
-      <c r="C129" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3">
-      <c r="A130" t="s">
-        <v>129</v>
-      </c>
-      <c r="B130" t="s">
-        <v>425</v>
-      </c>
-      <c r="C130" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3">
-      <c r="A131" t="s">
-        <v>130</v>
-      </c>
-      <c r="B131" t="s">
-        <v>426</v>
-      </c>
-      <c r="C131" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3">
-      <c r="A132" t="s">
-        <v>131</v>
-      </c>
-      <c r="B132" t="s">
-        <v>427</v>
-      </c>
-      <c r="C132" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3">
-      <c r="A133" t="s">
-        <v>132</v>
-      </c>
-      <c r="B133" t="s">
-        <v>428</v>
-      </c>
-      <c r="C133" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3">
-      <c r="A134" t="s">
-        <v>133</v>
-      </c>
-      <c r="B134" t="s">
-        <v>429</v>
-      </c>
-      <c r="C134" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3">
-      <c r="A135" t="s">
-        <v>134</v>
-      </c>
-      <c r="B135" t="s">
-        <v>430</v>
-      </c>
-      <c r="C135" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3">
-      <c r="A136" t="s">
-        <v>135</v>
-      </c>
-      <c r="B136" t="s">
-        <v>431</v>
-      </c>
-      <c r="C136" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3">
-      <c r="A137" t="s">
-        <v>136</v>
-      </c>
-      <c r="B137" t="s">
-        <v>432</v>
-      </c>
-      <c r="C137" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3">
-      <c r="A138" t="s">
-        <v>137</v>
-      </c>
-      <c r="B138" t="s">
-        <v>433</v>
-      </c>
-      <c r="C138" t="s">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3">
-      <c r="A139" t="s">
-        <v>138</v>
-      </c>
-      <c r="B139" t="s">
-        <v>434</v>
-      </c>
-      <c r="C139" t="s">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3">
-      <c r="A140" t="s">
-        <v>139</v>
-      </c>
-      <c r="B140" t="s">
-        <v>435</v>
-      </c>
-      <c r="C140" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3">
-      <c r="A141" t="s">
-        <v>140</v>
-      </c>
-      <c r="B141" t="s">
-        <v>436</v>
-      </c>
-      <c r="C141" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3">
-      <c r="A142" t="s">
-        <v>141</v>
-      </c>
-      <c r="B142" t="s">
-        <v>437</v>
-      </c>
-      <c r="C142" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3">
-      <c r="A143" t="s">
-        <v>142</v>
-      </c>
-      <c r="B143" t="s">
-        <v>438</v>
-      </c>
-      <c r="C143" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3">
-      <c r="A144" t="s">
-        <v>60</v>
-      </c>
-      <c r="B144" t="s">
-        <v>358</v>
-      </c>
-      <c r="C144" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3">
-      <c r="A145" t="s">
-        <v>143</v>
-      </c>
-      <c r="B145" t="s">
-        <v>439</v>
-      </c>
-      <c r="C145" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3">
-      <c r="A146" t="s">
-        <v>144</v>
-      </c>
-      <c r="B146" t="s">
-        <v>440</v>
-      </c>
-      <c r="C146" t="s">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3">
-      <c r="A147" t="s">
-        <v>145</v>
-      </c>
-      <c r="B147" t="s">
-        <v>441</v>
-      </c>
-      <c r="C147" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3">
-      <c r="A148" t="s">
-        <v>146</v>
-      </c>
-      <c r="B148" t="s">
-        <v>439</v>
-      </c>
-      <c r="C148" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3">
-      <c r="A149" t="s">
-        <v>147</v>
-      </c>
-      <c r="B149" t="s">
-        <v>442</v>
-      </c>
-      <c r="C149" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3">
-      <c r="A150" t="s">
-        <v>148</v>
-      </c>
-      <c r="B150" t="s">
-        <v>443</v>
-      </c>
-      <c r="C150" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3">
-      <c r="A151" t="s">
-        <v>149</v>
-      </c>
-      <c r="B151" t="s">
-        <v>444</v>
-      </c>
-      <c r="C151" t="s">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3">
-      <c r="A152" t="s">
-        <v>150</v>
-      </c>
-      <c r="B152" t="s">
-        <v>445</v>
-      </c>
-      <c r="C152" t="s">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3">
-      <c r="A153" t="s">
-        <v>151</v>
-      </c>
-      <c r="B153" t="s">
-        <v>446</v>
-      </c>
-      <c r="C153" t="s">
-        <v>742</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3">
-      <c r="A154" t="s">
-        <v>152</v>
-      </c>
-      <c r="B154" t="s">
-        <v>447</v>
-      </c>
-      <c r="C154" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3">
-      <c r="A155" t="s">
-        <v>153</v>
-      </c>
-      <c r="B155" t="s">
-        <v>448</v>
-      </c>
-      <c r="C155" t="s">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3">
-      <c r="A156" t="s">
-        <v>154</v>
-      </c>
-      <c r="B156" t="s">
-        <v>449</v>
-      </c>
-      <c r="C156" t="s">
-        <v>745</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3">
-      <c r="A157" t="s">
-        <v>155</v>
-      </c>
-      <c r="B157" t="s">
-        <v>450</v>
-      </c>
-      <c r="C157" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3">
-      <c r="A158" t="s">
-        <v>156</v>
-      </c>
-      <c r="B158" t="s">
-        <v>451</v>
-      </c>
-      <c r="C158" t="s">
-        <v>747</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3">
-      <c r="A159" t="s">
-        <v>157</v>
-      </c>
-      <c r="B159" t="s">
-        <v>452</v>
-      </c>
-      <c r="C159" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3">
-      <c r="A160" t="s">
-        <v>158</v>
-      </c>
-      <c r="B160" t="s">
-        <v>453</v>
-      </c>
-      <c r="C160" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3">
-      <c r="A161" t="s">
-        <v>60</v>
-      </c>
-      <c r="B161" t="s">
-        <v>358</v>
-      </c>
-      <c r="C161" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3">
-      <c r="A162" t="s">
-        <v>159</v>
-      </c>
-      <c r="B162" t="s">
-        <v>454</v>
-      </c>
-      <c r="C162" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3">
-      <c r="A163" t="s">
-        <v>160</v>
-      </c>
-      <c r="B163" t="s">
-        <v>455</v>
-      </c>
-      <c r="C163" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3">
-      <c r="A164" t="s">
-        <v>161</v>
-      </c>
-      <c r="B164" t="s">
-        <v>456</v>
-      </c>
-      <c r="C164" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3">
-      <c r="A165" t="s">
-        <v>162</v>
-      </c>
-      <c r="B165" t="s">
-        <v>457</v>
-      </c>
-      <c r="C165" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3">
-      <c r="A166" t="s">
-        <v>163</v>
-      </c>
-      <c r="B166" t="s">
-        <v>458</v>
-      </c>
-      <c r="C166" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3">
-      <c r="A167" t="s">
-        <v>164</v>
-      </c>
-      <c r="B167" t="s">
-        <v>459</v>
-      </c>
-      <c r="C167" t="s">
-        <v>755</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3">
-      <c r="A168" t="s">
-        <v>165</v>
-      </c>
-      <c r="B168" t="s">
-        <v>460</v>
-      </c>
-      <c r="C168" t="s">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3">
-      <c r="A169" t="s">
-        <v>166</v>
-      </c>
-      <c r="B169" t="s">
-        <v>461</v>
-      </c>
-      <c r="C169" t="s">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3">
-      <c r="A170" t="s">
-        <v>167</v>
-      </c>
-      <c r="B170" t="s">
-        <v>462</v>
-      </c>
-      <c r="C170" t="s">
-        <v>758</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3">
-      <c r="A171" t="s">
-        <v>168</v>
-      </c>
-      <c r="B171" t="s">
-        <v>463</v>
-      </c>
-      <c r="C171" t="s">
-        <v>759</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3">
-      <c r="A172" t="s">
-        <v>169</v>
-      </c>
-      <c r="B172" t="s">
-        <v>464</v>
-      </c>
-      <c r="C172" t="s">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3">
-      <c r="A173" t="s">
-        <v>170</v>
-      </c>
-      <c r="B173" t="s">
-        <v>465</v>
-      </c>
-      <c r="C173" t="s">
-        <v>761</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3">
-      <c r="A174" t="s">
-        <v>171</v>
-      </c>
-      <c r="B174" t="s">
-        <v>466</v>
-      </c>
-      <c r="C174" t="s">
-        <v>762</v>
-      </c>
-    </row>
-    <row r="175" spans="1:3">
-      <c r="A175" t="s">
-        <v>172</v>
-      </c>
-      <c r="B175" t="s">
-        <v>467</v>
-      </c>
-      <c r="C175" t="s">
-        <v>763</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3">
-      <c r="A176" t="s">
-        <v>173</v>
-      </c>
-      <c r="B176" t="s">
-        <v>468</v>
-      </c>
-      <c r="C176" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3">
-      <c r="A177" t="s">
-        <v>174</v>
-      </c>
-      <c r="B177" t="s">
-        <v>469</v>
-      </c>
-      <c r="C177" t="s">
-        <v>765</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3">
-      <c r="A178" t="s">
-        <v>175</v>
-      </c>
-      <c r="B178" t="s">
-        <v>470</v>
-      </c>
-      <c r="C178" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3">
-      <c r="A179" t="s">
-        <v>176</v>
-      </c>
-      <c r="B179" t="s">
-        <v>471</v>
-      </c>
-      <c r="C179" t="s">
-        <v>767</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3">
-      <c r="A180" t="s">
-        <v>177</v>
-      </c>
-      <c r="B180" t="s">
-        <v>472</v>
-      </c>
-      <c r="C180" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3">
-      <c r="A181" t="s">
-        <v>178</v>
-      </c>
-      <c r="B181" t="s">
-        <v>473</v>
-      </c>
-      <c r="C181" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3">
-      <c r="A182" t="s">
-        <v>179</v>
-      </c>
-      <c r="B182" t="s">
-        <v>474</v>
-      </c>
-      <c r="C182" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="183" spans="1:3">
-      <c r="A183" t="s">
-        <v>180</v>
-      </c>
-      <c r="B183" t="s">
-        <v>475</v>
-      </c>
-      <c r="C183" t="s">
-        <v>771</v>
-      </c>
-    </row>
-    <row r="184" spans="1:3">
-      <c r="A184" t="s">
-        <v>181</v>
-      </c>
-      <c r="B184" t="s">
-        <v>476</v>
-      </c>
-      <c r="C184" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3">
-      <c r="A185" t="s">
-        <v>182</v>
-      </c>
-      <c r="B185" t="s">
-        <v>477</v>
-      </c>
-      <c r="C185" t="s">
-        <v>773</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3">
-      <c r="A186" t="s">
-        <v>183</v>
-      </c>
-      <c r="B186" t="s">
-        <v>478</v>
-      </c>
-      <c r="C186" t="s">
-        <v>774</v>
-      </c>
-    </row>
-    <row r="187" spans="1:3">
-      <c r="A187" t="s">
-        <v>184</v>
-      </c>
-      <c r="B187" t="s">
-        <v>479</v>
-      </c>
-      <c r="C187" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="188" spans="1:3">
-      <c r="A188" t="s">
-        <v>185</v>
-      </c>
-      <c r="B188" t="s">
-        <v>480</v>
-      </c>
-      <c r="C188" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="189" spans="1:3">
-      <c r="A189" t="s">
-        <v>186</v>
-      </c>
-      <c r="B189" t="s">
-        <v>481</v>
-      </c>
-      <c r="C189" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="190" spans="1:3">
-      <c r="A190" t="s">
-        <v>187</v>
-      </c>
-      <c r="B190" t="s">
-        <v>482</v>
-      </c>
-      <c r="C190" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="191" spans="1:3">
-      <c r="A191" t="s">
-        <v>188</v>
-      </c>
-      <c r="B191" t="s">
-        <v>483</v>
-      </c>
-      <c r="C191" t="s">
-        <v>779</v>
-      </c>
-    </row>
-    <row r="192" spans="1:3">
-      <c r="A192" t="s">
-        <v>189</v>
-      </c>
-      <c r="B192" t="s">
-        <v>484</v>
-      </c>
-      <c r="C192" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="193" spans="1:3">
-      <c r="A193" t="s">
-        <v>190</v>
-      </c>
-      <c r="B193" t="s">
-        <v>485</v>
-      </c>
-      <c r="C193" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="194" spans="1:3">
-      <c r="A194" t="s">
-        <v>191</v>
-      </c>
-      <c r="B194" t="s">
-        <v>486</v>
-      </c>
-      <c r="C194" t="s">
-        <v>782</v>
-      </c>
-    </row>
-    <row r="195" spans="1:3">
-      <c r="A195" t="s">
-        <v>192</v>
-      </c>
-      <c r="B195" t="s">
-        <v>487</v>
-      </c>
-      <c r="C195" t="s">
-        <v>783</v>
-      </c>
-    </row>
-    <row r="196" spans="1:3">
-      <c r="A196" t="s">
-        <v>193</v>
-      </c>
-      <c r="B196" t="s">
-        <v>488</v>
-      </c>
-      <c r="C196" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="197" spans="1:3">
-      <c r="A197" t="s">
-        <v>194</v>
-      </c>
-      <c r="B197" t="s">
-        <v>489</v>
-      </c>
-      <c r="C197" t="s">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="198" spans="1:3">
-      <c r="A198" t="s">
-        <v>195</v>
-      </c>
-      <c r="B198" t="s">
-        <v>490</v>
-      </c>
-      <c r="C198" t="s">
-        <v>786</v>
-      </c>
-    </row>
-    <row r="199" spans="1:3">
-      <c r="A199" t="s">
-        <v>196</v>
-      </c>
-      <c r="B199" t="s">
-        <v>491</v>
-      </c>
-      <c r="C199" t="s">
-        <v>787</v>
-      </c>
-    </row>
-    <row r="200" spans="1:3">
-      <c r="A200" t="s">
-        <v>197</v>
-      </c>
-      <c r="B200" t="s">
-        <v>492</v>
-      </c>
-      <c r="C200" t="s">
-        <v>788</v>
-      </c>
-    </row>
-    <row r="201" spans="1:3">
-      <c r="A201" t="s">
-        <v>60</v>
-      </c>
-      <c r="B201" t="s">
-        <v>358</v>
-      </c>
-      <c r="C201" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="202" spans="1:3">
-      <c r="A202" t="s">
-        <v>198</v>
-      </c>
-      <c r="B202" t="s">
-        <v>493</v>
-      </c>
-      <c r="C202" t="s">
-        <v>789</v>
-      </c>
-    </row>
-    <row r="203" spans="1:3">
-      <c r="A203" t="s">
-        <v>199</v>
-      </c>
-      <c r="B203" t="s">
-        <v>494</v>
-      </c>
-      <c r="C203" t="s">
-        <v>790</v>
-      </c>
-    </row>
-    <row r="204" spans="1:3">
-      <c r="A204" t="s">
-        <v>200</v>
-      </c>
-      <c r="B204" t="s">
-        <v>495</v>
-      </c>
-      <c r="C204" t="s">
-        <v>791</v>
-      </c>
-    </row>
-    <row r="205" spans="1:3">
-      <c r="A205" t="s">
-        <v>201</v>
-      </c>
-      <c r="B205" t="s">
-        <v>496</v>
-      </c>
-      <c r="C205" t="s">
-        <v>792</v>
-      </c>
-    </row>
-    <row r="206" spans="1:3">
-      <c r="A206" t="s">
-        <v>202</v>
-      </c>
-      <c r="B206" t="s">
-        <v>497</v>
-      </c>
-      <c r="C206" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="207" spans="1:3">
-      <c r="A207" t="s">
-        <v>203</v>
-      </c>
-      <c r="B207" t="s">
-        <v>498</v>
-      </c>
-      <c r="C207" t="s">
-        <v>794</v>
-      </c>
-    </row>
-    <row r="208" spans="1:3">
-      <c r="A208" t="s">
-        <v>204</v>
-      </c>
-      <c r="B208" t="s">
-        <v>499</v>
-      </c>
-      <c r="C208" t="s">
-        <v>795</v>
-      </c>
-    </row>
-    <row r="209" spans="1:3">
-      <c r="A209" t="s">
-        <v>205</v>
-      </c>
-      <c r="B209" t="s">
-        <v>500</v>
-      </c>
-      <c r="C209" t="s">
-        <v>796</v>
-      </c>
-    </row>
-    <row r="210" spans="1:3">
-      <c r="A210" t="s">
-        <v>206</v>
-      </c>
-      <c r="B210" t="s">
-        <v>501</v>
-      </c>
-      <c r="C210" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="211" spans="1:3">
-      <c r="A211" t="s">
-        <v>207</v>
-      </c>
-      <c r="B211" t="s">
-        <v>502</v>
-      </c>
-      <c r="C211" t="s">
-        <v>798</v>
-      </c>
-    </row>
-    <row r="212" spans="1:3">
-      <c r="A212" t="s">
-        <v>208</v>
-      </c>
-      <c r="B212" t="s">
-        <v>503</v>
-      </c>
-      <c r="C212" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="213" spans="1:3">
-      <c r="A213" t="s">
-        <v>209</v>
-      </c>
-      <c r="B213" t="s">
-        <v>504</v>
-      </c>
-      <c r="C213" t="s">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="214" spans="1:3">
-      <c r="A214" t="s">
-        <v>210</v>
-      </c>
-      <c r="B214" t="s">
-        <v>505</v>
-      </c>
-      <c r="C214" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="215" spans="1:3">
-      <c r="A215" t="s">
-        <v>211</v>
-      </c>
-      <c r="B215" t="s">
-        <v>506</v>
-      </c>
-      <c r="C215" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="216" spans="1:3">
-      <c r="A216" t="s">
-        <v>212</v>
-      </c>
-      <c r="B216" t="s">
-        <v>507</v>
-      </c>
-      <c r="C216" t="s">
-        <v>803</v>
-      </c>
-    </row>
-    <row r="217" spans="1:3">
-      <c r="A217" t="s">
-        <v>213</v>
-      </c>
-      <c r="B217" t="s">
-        <v>508</v>
-      </c>
-      <c r="C217" t="s">
-        <v>804</v>
-      </c>
-    </row>
-    <row r="218" spans="1:3">
-      <c r="A218" t="s">
-        <v>214</v>
-      </c>
-      <c r="B218" t="s">
-        <v>509</v>
-      </c>
-      <c r="C218" t="s">
-        <v>805</v>
-      </c>
-    </row>
-    <row r="219" spans="1:3">
-      <c r="A219" t="s">
-        <v>215</v>
-      </c>
-      <c r="B219" t="s">
-        <v>510</v>
-      </c>
-      <c r="C219" t="s">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="220" spans="1:3">
-      <c r="A220" t="s">
-        <v>60</v>
-      </c>
-      <c r="B220" t="s">
-        <v>358</v>
-      </c>
-      <c r="C220" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="221" spans="1:3">
-      <c r="A221" t="s">
-        <v>216</v>
-      </c>
-      <c r="B221" t="s">
-        <v>511</v>
-      </c>
-      <c r="C221" t="s">
-        <v>807</v>
-      </c>
-    </row>
-    <row r="222" spans="1:3">
-      <c r="A222" t="s">
-        <v>217</v>
-      </c>
-      <c r="B222" t="s">
-        <v>512</v>
-      </c>
-      <c r="C222" t="s">
-        <v>808</v>
-      </c>
-    </row>
-    <row r="223" spans="1:3">
-      <c r="A223" t="s">
-        <v>218</v>
-      </c>
-      <c r="B223" t="s">
-        <v>513</v>
-      </c>
-      <c r="C223" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="224" spans="1:3">
-      <c r="A224" t="s">
-        <v>219</v>
-      </c>
-      <c r="B224" t="s">
-        <v>514</v>
-      </c>
-      <c r="C224" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="225" spans="1:3">
-      <c r="A225" t="s">
-        <v>220</v>
-      </c>
-      <c r="B225" t="s">
-        <v>515</v>
-      </c>
-      <c r="C225" t="s">
-        <v>811</v>
-      </c>
-    </row>
-    <row r="226" spans="1:3">
-      <c r="A226" t="s">
-        <v>221</v>
-      </c>
-      <c r="B226" t="s">
-        <v>516</v>
-      </c>
-      <c r="C226" t="s">
-        <v>812</v>
-      </c>
-    </row>
-    <row r="227" spans="1:3">
-      <c r="A227" t="s">
-        <v>222</v>
-      </c>
-      <c r="B227" t="s">
-        <v>517</v>
-      </c>
-      <c r="C227" t="s">
-        <v>813</v>
-      </c>
-    </row>
-    <row r="228" spans="1:3">
-      <c r="A228" t="s">
-        <v>223</v>
-      </c>
-      <c r="B228" t="s">
-        <v>518</v>
-      </c>
-      <c r="C228" t="s">
-        <v>814</v>
-      </c>
-    </row>
-    <row r="229" spans="1:3">
-      <c r="A229" t="s">
-        <v>224</v>
-      </c>
-      <c r="B229" t="s">
-        <v>519</v>
-      </c>
-      <c r="C229" t="s">
-        <v>815</v>
-      </c>
-    </row>
-    <row r="230" spans="1:3">
-      <c r="A230" t="s">
-        <v>225</v>
-      </c>
-      <c r="B230" t="s">
-        <v>520</v>
-      </c>
-      <c r="C230" t="s">
-        <v>816</v>
-      </c>
-    </row>
-    <row r="231" spans="1:3">
-      <c r="A231" t="s">
-        <v>226</v>
-      </c>
-      <c r="B231" t="s">
-        <v>521</v>
-      </c>
-      <c r="C231" t="s">
-        <v>817</v>
-      </c>
-    </row>
-    <row r="232" spans="1:3">
-      <c r="A232" t="s">
-        <v>227</v>
-      </c>
-      <c r="B232" t="s">
-        <v>522</v>
-      </c>
-      <c r="C232" t="s">
-        <v>818</v>
-      </c>
-    </row>
-    <row r="233" spans="1:3">
-      <c r="A233" t="s">
-        <v>228</v>
-      </c>
-      <c r="B233" t="s">
-        <v>523</v>
-      </c>
-      <c r="C233" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="234" spans="1:3">
-      <c r="A234" t="s">
-        <v>229</v>
-      </c>
-      <c r="B234" t="s">
-        <v>524</v>
-      </c>
-      <c r="C234" t="s">
-        <v>820</v>
-      </c>
-    </row>
-    <row r="235" spans="1:3">
-      <c r="A235" t="s">
-        <v>230</v>
-      </c>
-      <c r="B235" t="s">
-        <v>525</v>
-      </c>
-      <c r="C235" t="s">
-        <v>821</v>
-      </c>
-    </row>
-    <row r="236" spans="1:3">
-      <c r="A236" t="s">
-        <v>231</v>
-      </c>
-      <c r="B236" t="s">
-        <v>526</v>
-      </c>
-      <c r="C236" t="s">
-        <v>822</v>
-      </c>
-    </row>
-    <row r="237" spans="1:3">
-      <c r="A237" t="s">
-        <v>232</v>
-      </c>
-      <c r="B237" t="s">
-        <v>527</v>
-      </c>
-      <c r="C237" t="s">
-        <v>823</v>
-      </c>
-    </row>
-    <row r="238" spans="1:3">
-      <c r="A238" t="s">
-        <v>233</v>
-      </c>
-      <c r="B238" t="s">
-        <v>528</v>
-      </c>
-      <c r="C238" t="s">
-        <v>824</v>
-      </c>
-    </row>
-    <row r="239" spans="1:3">
-      <c r="A239" t="s">
-        <v>234</v>
-      </c>
-      <c r="B239" t="s">
-        <v>529</v>
-      </c>
-      <c r="C239" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="240" spans="1:3">
-      <c r="A240" t="s">
-        <v>235</v>
-      </c>
-      <c r="B240" t="s">
-        <v>530</v>
-      </c>
-      <c r="C240" t="s">
-        <v>826</v>
-      </c>
-    </row>
-    <row r="241" spans="1:3">
-      <c r="A241" t="s">
-        <v>236</v>
-      </c>
-      <c r="B241" t="s">
-        <v>531</v>
-      </c>
-      <c r="C241" t="s">
-        <v>827</v>
-      </c>
-    </row>
-    <row r="242" spans="1:3">
-      <c r="A242" t="s">
-        <v>237</v>
-      </c>
-      <c r="B242" t="s">
-        <v>532</v>
-      </c>
-      <c r="C242" t="s">
-        <v>828</v>
-      </c>
-    </row>
-    <row r="243" spans="1:3">
-      <c r="A243" t="s">
-        <v>238</v>
-      </c>
-      <c r="B243" t="s">
-        <v>533</v>
-      </c>
-      <c r="C243" t="s">
-        <v>829</v>
-      </c>
-    </row>
-    <row r="244" spans="1:3">
-      <c r="A244" t="s">
-        <v>239</v>
-      </c>
-      <c r="B244" t="s">
-        <v>534</v>
-      </c>
-      <c r="C244" t="s">
-        <v>830</v>
-      </c>
-    </row>
-    <row r="245" spans="1:3">
-      <c r="A245" t="s">
-        <v>240</v>
-      </c>
-      <c r="B245" t="s">
-        <v>535</v>
-      </c>
-      <c r="C245" t="s">
-        <v>831</v>
-      </c>
-    </row>
-    <row r="246" spans="1:3">
-      <c r="A246" t="s">
-        <v>241</v>
-      </c>
-      <c r="B246" t="s">
-        <v>536</v>
-      </c>
-      <c r="C246" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="247" spans="1:3">
-      <c r="A247" t="s">
-        <v>242</v>
-      </c>
-      <c r="B247" t="s">
-        <v>537</v>
-      </c>
-      <c r="C247" t="s">
-        <v>833</v>
-      </c>
-    </row>
-    <row r="248" spans="1:3">
-      <c r="A248" t="s">
-        <v>243</v>
-      </c>
-      <c r="B248" t="s">
-        <v>538</v>
-      </c>
-      <c r="C248" t="s">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="249" spans="1:3">
-      <c r="A249" t="s">
-        <v>244</v>
-      </c>
-      <c r="B249" t="s">
-        <v>539</v>
-      </c>
-      <c r="C249" t="s">
-        <v>835</v>
-      </c>
-    </row>
-    <row r="250" spans="1:3">
-      <c r="A250" t="s">
-        <v>245</v>
-      </c>
-      <c r="B250" t="s">
-        <v>540</v>
-      </c>
-      <c r="C250" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="251" spans="1:3">
-      <c r="A251" t="s">
-        <v>246</v>
-      </c>
-      <c r="B251" t="s">
-        <v>541</v>
-      </c>
-      <c r="C251" t="s">
-        <v>837</v>
-      </c>
-    </row>
-    <row r="252" spans="1:3">
-      <c r="A252" t="s">
-        <v>247</v>
-      </c>
-      <c r="B252" t="s">
-        <v>542</v>
-      </c>
-      <c r="C252" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="253" spans="1:3">
-      <c r="A253" t="s">
-        <v>248</v>
-      </c>
-      <c r="B253" t="s">
-        <v>543</v>
-      </c>
-      <c r="C253" t="s">
-        <v>839</v>
-      </c>
-    </row>
-    <row r="254" spans="1:3">
-      <c r="A254" t="s">
-        <v>249</v>
-      </c>
-      <c r="B254" t="s">
-        <v>544</v>
-      </c>
-      <c r="C254" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="255" spans="1:3">
-      <c r="A255" t="s">
-        <v>250</v>
-      </c>
-      <c r="B255" t="s">
-        <v>545</v>
-      </c>
-      <c r="C255" t="s">
-        <v>841</v>
-      </c>
-    </row>
-    <row r="256" spans="1:3">
-      <c r="A256" t="s">
-        <v>251</v>
-      </c>
-      <c r="B256" t="s">
-        <v>546</v>
-      </c>
-      <c r="C256" t="s">
-        <v>842</v>
-      </c>
-    </row>
-    <row r="257" spans="1:3">
-      <c r="A257" t="s">
-        <v>252</v>
-      </c>
-      <c r="B257" t="s">
-        <v>547</v>
-      </c>
-      <c r="C257" t="s">
-        <v>843</v>
-      </c>
-    </row>
-    <row r="258" spans="1:3">
-      <c r="A258" t="s">
-        <v>253</v>
-      </c>
-      <c r="B258" t="s">
-        <v>548</v>
-      </c>
-      <c r="C258" t="s">
-        <v>844</v>
-      </c>
-    </row>
-    <row r="259" spans="1:3">
-      <c r="A259" t="s">
-        <v>254</v>
-      </c>
-      <c r="B259" t="s">
-        <v>549</v>
-      </c>
-      <c r="C259" t="s">
-        <v>845</v>
-      </c>
-    </row>
-    <row r="260" spans="1:3">
-      <c r="A260" t="s">
-        <v>255</v>
-      </c>
-      <c r="B260" t="s">
-        <v>550</v>
-      </c>
-      <c r="C260" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="261" spans="1:3">
-      <c r="A261" t="s">
-        <v>256</v>
-      </c>
-      <c r="B261" t="s">
-        <v>551</v>
-      </c>
-      <c r="C261" t="s">
-        <v>847</v>
-      </c>
-    </row>
-    <row r="262" spans="1:3">
-      <c r="A262" t="s">
-        <v>257</v>
-      </c>
-      <c r="B262" t="s">
-        <v>552</v>
-      </c>
-      <c r="C262" t="s">
-        <v>848</v>
-      </c>
-    </row>
-    <row r="263" spans="1:3">
-      <c r="A263" t="s">
-        <v>258</v>
-      </c>
-      <c r="B263" t="s">
-        <v>553</v>
-      </c>
-      <c r="C263" t="s">
-        <v>849</v>
-      </c>
-    </row>
-    <row r="264" spans="1:3">
-      <c r="A264" t="s">
-        <v>259</v>
-      </c>
-      <c r="B264" t="s">
-        <v>554</v>
-      </c>
-      <c r="C264" t="s">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="265" spans="1:3">
-      <c r="A265" t="s">
-        <v>260</v>
-      </c>
-      <c r="B265" t="s">
-        <v>555</v>
-      </c>
-      <c r="C265" t="s">
-        <v>851</v>
-      </c>
-    </row>
-    <row r="266" spans="1:3">
-      <c r="A266" t="s">
-        <v>261</v>
-      </c>
-      <c r="B266" t="s">
-        <v>556</v>
-      </c>
-      <c r="C266" t="s">
-        <v>852</v>
-      </c>
-    </row>
-    <row r="267" spans="1:3">
-      <c r="A267" t="s">
-        <v>262</v>
-      </c>
-      <c r="B267" t="s">
-        <v>557</v>
-      </c>
-      <c r="C267" t="s">
-        <v>853</v>
-      </c>
-    </row>
-    <row r="268" spans="1:3">
-      <c r="A268" t="s">
-        <v>263</v>
-      </c>
-      <c r="B268" t="s">
-        <v>558</v>
-      </c>
-      <c r="C268" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="269" spans="1:3">
-      <c r="A269" t="s">
-        <v>264</v>
-      </c>
-      <c r="B269" t="s">
-        <v>559</v>
-      </c>
-      <c r="C269" t="s">
-        <v>855</v>
-      </c>
-    </row>
-    <row r="270" spans="1:3">
-      <c r="A270" t="s">
-        <v>265</v>
-      </c>
-      <c r="B270" t="s">
-        <v>560</v>
-      </c>
-      <c r="C270" t="s">
-        <v>856</v>
-      </c>
-    </row>
-    <row r="271" spans="1:3">
-      <c r="A271" t="s">
-        <v>266</v>
-      </c>
-      <c r="B271" t="s">
-        <v>561</v>
-      </c>
-      <c r="C271" t="s">
-        <v>857</v>
-      </c>
-    </row>
-    <row r="272" spans="1:3">
-      <c r="A272" t="s">
-        <v>267</v>
-      </c>
-      <c r="B272" t="s">
-        <v>562</v>
-      </c>
-      <c r="C272" t="s">
-        <v>858</v>
-      </c>
-    </row>
-    <row r="273" spans="1:3">
-      <c r="A273" t="s">
-        <v>268</v>
-      </c>
-      <c r="B273" t="s">
-        <v>563</v>
-      </c>
-      <c r="C273" t="s">
-        <v>859</v>
-      </c>
-    </row>
-    <row r="274" spans="1:3">
-      <c r="A274" t="s">
-        <v>269</v>
-      </c>
-      <c r="B274" t="s">
-        <v>564</v>
-      </c>
-      <c r="C274" t="s">
-        <v>860</v>
-      </c>
-    </row>
-    <row r="275" spans="1:3">
-      <c r="A275" t="s">
-        <v>270</v>
-      </c>
-      <c r="B275" t="s">
-        <v>565</v>
-      </c>
-      <c r="C275" t="s">
-        <v>861</v>
-      </c>
-    </row>
-    <row r="276" spans="1:3">
-      <c r="A276" t="s">
-        <v>271</v>
-      </c>
-      <c r="B276" t="s">
-        <v>566</v>
-      </c>
-      <c r="C276" t="s">
-        <v>862</v>
-      </c>
-    </row>
-    <row r="277" spans="1:3">
-      <c r="A277" t="s">
-        <v>272</v>
-      </c>
-      <c r="B277" t="s">
-        <v>567</v>
-      </c>
-      <c r="C277" t="s">
-        <v>863</v>
-      </c>
-    </row>
-    <row r="278" spans="1:3">
-      <c r="A278" t="s">
-        <v>273</v>
-      </c>
-      <c r="B278" t="s">
-        <v>568</v>
-      </c>
-      <c r="C278" t="s">
-        <v>864</v>
-      </c>
-    </row>
-    <row r="279" spans="1:3">
-      <c r="A279" t="s">
-        <v>274</v>
-      </c>
-      <c r="B279" t="s">
-        <v>569</v>
-      </c>
-      <c r="C279" t="s">
-        <v>865</v>
-      </c>
-    </row>
-    <row r="280" spans="1:3">
-      <c r="A280" t="s">
-        <v>275</v>
-      </c>
-      <c r="B280" t="s">
-        <v>570</v>
-      </c>
-      <c r="C280" t="s">
-        <v>866</v>
-      </c>
-    </row>
-    <row r="281" spans="1:3">
-      <c r="A281" t="s">
-        <v>276</v>
-      </c>
-      <c r="B281" t="s">
-        <v>571</v>
-      </c>
-      <c r="C281" t="s">
-        <v>867</v>
-      </c>
-    </row>
-    <row r="282" spans="1:3">
-      <c r="A282" t="s">
-        <v>277</v>
-      </c>
-      <c r="B282" t="s">
-        <v>572</v>
-      </c>
-      <c r="C282" t="s">
-        <v>868</v>
-      </c>
-    </row>
-    <row r="283" spans="1:3">
-      <c r="A283" t="s">
-        <v>278</v>
-      </c>
-      <c r="B283" t="s">
-        <v>573</v>
-      </c>
-      <c r="C283" t="s">
-        <v>869</v>
-      </c>
-    </row>
-    <row r="284" spans="1:3">
-      <c r="A284" t="s">
-        <v>279</v>
-      </c>
-      <c r="B284" t="s">
-        <v>574</v>
-      </c>
-      <c r="C284" t="s">
-        <v>870</v>
-      </c>
-    </row>
-    <row r="285" spans="1:3">
-      <c r="A285" t="s">
-        <v>280</v>
-      </c>
-      <c r="B285" t="s">
-        <v>575</v>
-      </c>
-      <c r="C285" t="s">
-        <v>871</v>
-      </c>
-    </row>
-    <row r="286" spans="1:3">
-      <c r="A286" t="s">
-        <v>281</v>
-      </c>
-      <c r="B286" t="s">
-        <v>576</v>
-      </c>
-      <c r="C286" t="s">
-        <v>872</v>
-      </c>
-    </row>
-    <row r="287" spans="1:3">
-      <c r="A287" t="s">
-        <v>282</v>
-      </c>
-      <c r="B287" t="s">
-        <v>577</v>
-      </c>
-      <c r="C287" t="s">
-        <v>873</v>
-      </c>
-    </row>
-    <row r="288" spans="1:3">
-      <c r="A288" t="s">
-        <v>283</v>
-      </c>
-      <c r="B288" t="s">
-        <v>578</v>
-      </c>
-      <c r="C288" t="s">
-        <v>874</v>
-      </c>
-    </row>
-    <row r="289" spans="1:3">
-      <c r="A289" t="s">
-        <v>284</v>
-      </c>
-      <c r="B289" t="s">
-        <v>579</v>
-      </c>
-      <c r="C289" t="s">
-        <v>875</v>
-      </c>
-    </row>
-    <row r="290" spans="1:3">
-      <c r="A290" t="s">
-        <v>285</v>
-      </c>
-      <c r="B290" t="s">
-        <v>580</v>
-      </c>
-      <c r="C290" t="s">
-        <v>876</v>
-      </c>
-    </row>
-    <row r="291" spans="1:3">
-      <c r="A291" t="s">
-        <v>286</v>
-      </c>
-      <c r="B291" t="s">
-        <v>581</v>
-      </c>
-      <c r="C291" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="292" spans="1:3">
-      <c r="A292" t="s">
-        <v>287</v>
-      </c>
-      <c r="B292" t="s">
-        <v>582</v>
-      </c>
-      <c r="C292" t="s">
-        <v>878</v>
-      </c>
-    </row>
-    <row r="293" spans="1:3">
-      <c r="A293" t="s">
-        <v>288</v>
-      </c>
-      <c r="B293" t="s">
-        <v>583</v>
-      </c>
-      <c r="C293" t="s">
-        <v>879</v>
-      </c>
-    </row>
-    <row r="294" spans="1:3">
-      <c r="A294" t="s">
-        <v>289</v>
-      </c>
-      <c r="B294" t="s">
-        <v>584</v>
-      </c>
-      <c r="C294" t="s">
-        <v>880</v>
-      </c>
-    </row>
-    <row r="295" spans="1:3">
-      <c r="A295" t="s">
-        <v>290</v>
-      </c>
-      <c r="B295" t="s">
-        <v>585</v>
-      </c>
-      <c r="C295" t="s">
-        <v>881</v>
-      </c>
-    </row>
-    <row r="296" spans="1:3">
-      <c r="A296" t="s">
-        <v>291</v>
-      </c>
-      <c r="B296" t="s">
-        <v>586</v>
-      </c>
-      <c r="C296" t="s">
-        <v>882</v>
-      </c>
-    </row>
-    <row r="297" spans="1:3">
-      <c r="A297" t="s">
-        <v>292</v>
-      </c>
-      <c r="B297" t="s">
-        <v>587</v>
-      </c>
-      <c r="C297" t="s">
-        <v>883</v>
-      </c>
-    </row>
-    <row r="298" spans="1:3">
-      <c r="A298" t="s">
-        <v>293</v>
-      </c>
-      <c r="B298" t="s">
-        <v>588</v>
-      </c>
-      <c r="C298" t="s">
-        <v>884</v>
-      </c>
-    </row>
-    <row r="299" spans="1:3">
-      <c r="A299" t="s">
-        <v>294</v>
-      </c>
-      <c r="B299" t="s">
-        <v>589</v>
-      </c>
-      <c r="C299" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="300" spans="1:3">
-      <c r="A300" t="s">
-        <v>295</v>
-      </c>
-      <c r="B300" t="s">
-        <v>590</v>
-      </c>
-      <c r="C300" t="s">
-        <v>886</v>
-      </c>
-    </row>
-    <row r="301" spans="1:3">
-      <c r="A301" t="s">
-        <v>296</v>
-      </c>
-      <c r="B301" t="s">
-        <v>591</v>
-      </c>
-      <c r="C301" t="s">
-        <v>887</v>
-      </c>
-    </row>
-    <row r="302" spans="1:3">
-      <c r="A302" t="s">
-        <v>297</v>
-      </c>
-      <c r="B302" t="s">
-        <v>592</v>
-      </c>
-      <c r="C302" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="303" spans="1:3">
-      <c r="A303" t="s">
-        <v>298</v>
-      </c>
-      <c r="B303" t="s">
-        <v>593</v>
-      </c>
-      <c r="C303" t="s">
-        <v>889</v>
-      </c>
-    </row>
-    <row r="304" spans="1:3">
-      <c r="A304" t="s">
-        <v>299</v>
-      </c>
-      <c r="B304" t="s">
-        <v>594</v>
-      </c>
-      <c r="C304" t="s">
-        <v>890</v>
-      </c>
-    </row>
-    <row r="305" spans="1:3">
-      <c r="A305" t="s">
-        <v>300</v>
-      </c>
-      <c r="B305" t="s">
-        <v>595</v>
-      </c>
       <c r="C305" t="s">
-        <v>891</v>
+        <v>892</v>
+      </c>
+      <c r="D305" t="s">
+        <v>1188</v>
       </c>
     </row>
   </sheetData>
